--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1339"/>
+  <dimension ref="A1:R1341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74941,7 +74941,7 @@
         <v>20</v>
       </c>
       <c r="O1330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1330" t="n">
         <v>0</v>
@@ -75453,7 +75453,117 @@
       <c r="Q1339" t="n">
         <v>0</v>
       </c>
-      <c r="R1339" t="inlineStr"/>
+      <c r="R1339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340" s="2" t="n">
+        <v>45440</v>
+      </c>
+      <c r="B1340" t="n">
+        <v>1803</v>
+      </c>
+      <c r="C1340" t="n">
+        <v>1811.900024414062</v>
+      </c>
+      <c r="D1340" t="n">
+        <v>1786.349975585938</v>
+      </c>
+      <c r="E1340" t="n">
+        <v>1801.550048828125</v>
+      </c>
+      <c r="F1340" t="n">
+        <v>1801.550048828125</v>
+      </c>
+      <c r="G1340" t="n">
+        <v>379419</v>
+      </c>
+      <c r="H1340" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1340" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1340" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1340" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1340" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1340" t="inlineStr"/>
+    </row>
+    <row r="1341">
+      <c r="A1341" s="2" t="n">
+        <v>45441</v>
+      </c>
+      <c r="B1341" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1341" t="n">
+        <v>1810.949951171875</v>
+      </c>
+      <c r="D1341" t="n">
+        <v>1772.050048828125</v>
+      </c>
+      <c r="E1341" t="n">
+        <v>1775.449951171875</v>
+      </c>
+      <c r="F1341" t="n">
+        <v>1775.449951171875</v>
+      </c>
+      <c r="G1341" t="n">
+        <v>342023</v>
+      </c>
+      <c r="H1341" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1341" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1341" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1341" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1341" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1341" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1341" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1342"/>
+  <dimension ref="A1:R1343"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75621,7 +75621,63 @@
       <c r="Q1342" t="n">
         <v>0</v>
       </c>
-      <c r="R1342" t="inlineStr"/>
+      <c r="R1342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343" s="2" t="n">
+        <v>45443</v>
+      </c>
+      <c r="B1343" t="n">
+        <v>1766.050048828125</v>
+      </c>
+      <c r="C1343" t="n">
+        <v>1784.949951171875</v>
+      </c>
+      <c r="D1343" t="n">
+        <v>1750</v>
+      </c>
+      <c r="E1343" t="n">
+        <v>1775.699951171875</v>
+      </c>
+      <c r="F1343" t="n">
+        <v>1775.699951171875</v>
+      </c>
+      <c r="G1343" t="n">
+        <v>268825</v>
+      </c>
+      <c r="H1343" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1343" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1343" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1343" t="n">
+        <v>22</v>
+      </c>
+      <c r="O1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1343" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1343" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -75677,7 +75677,9 @@
       <c r="Q1343" t="n">
         <v>0</v>
       </c>
-      <c r="R1343" t="inlineStr"/>
+      <c r="R1343" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -76013,7 +76013,9 @@
       <c r="Q1349" t="n">
         <v>0</v>
       </c>
-      <c r="R1349" t="inlineStr"/>
+      <c r="R1349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1350">
       <c r="A1350" s="2" t="n">
@@ -76067,7 +76069,9 @@
       <c r="Q1350" t="n">
         <v>0</v>
       </c>
-      <c r="R1350" t="inlineStr"/>
+      <c r="R1350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1351">
       <c r="A1351" s="2" t="n">
@@ -76121,7 +76125,9 @@
       <c r="Q1351" t="n">
         <v>0</v>
       </c>
-      <c r="R1351" t="inlineStr"/>
+      <c r="R1351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1352">
       <c r="A1352" s="2" t="n">
@@ -76175,7 +76181,9 @@
       <c r="Q1352" t="n">
         <v>0</v>
       </c>
-      <c r="R1352" t="inlineStr"/>
+      <c r="R1352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1353">
       <c r="A1353" s="2" t="n">
@@ -76229,7 +76237,9 @@
       <c r="Q1353" t="n">
         <v>0</v>
       </c>
-      <c r="R1353" t="inlineStr"/>
+      <c r="R1353" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1353"/>
+  <dimension ref="A1:R1354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76241,6 +76241,60 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1354">
+      <c r="A1354" s="2" t="n">
+        <v>45461</v>
+      </c>
+      <c r="B1354" t="n">
+        <v>1895</v>
+      </c>
+      <c r="C1354" t="n">
+        <v>1899</v>
+      </c>
+      <c r="D1354" t="n">
+        <v>1873</v>
+      </c>
+      <c r="E1354" t="n">
+        <v>1889</v>
+      </c>
+      <c r="F1354" t="n">
+        <v>1889</v>
+      </c>
+      <c r="G1354" t="n">
+        <v>305083</v>
+      </c>
+      <c r="H1354" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1354" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1354" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1354" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1354" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1354" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1354"/>
+  <dimension ref="A1:R1355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75781,7 +75781,7 @@
         <v>23</v>
       </c>
       <c r="O1345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1345" t="n">
         <v>0</v>
@@ -76293,7 +76293,63 @@
       <c r="Q1354" t="n">
         <v>0</v>
       </c>
-      <c r="R1354" t="inlineStr"/>
+      <c r="R1354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1355" t="n">
+        <v>1888.5</v>
+      </c>
+      <c r="C1355" t="n">
+        <v>1889.400024414062</v>
+      </c>
+      <c r="D1355" t="n">
+        <v>1850</v>
+      </c>
+      <c r="E1355" t="n">
+        <v>1854.5</v>
+      </c>
+      <c r="F1355" t="n">
+        <v>1854.5</v>
+      </c>
+      <c r="G1355" t="n">
+        <v>397940</v>
+      </c>
+      <c r="H1355" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1355" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1355" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1355" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1355" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1355" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1355"/>
+  <dimension ref="A1:R1361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76117,7 +76117,7 @@
         <v>24</v>
       </c>
       <c r="O1351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1351" t="n">
         <v>0</v>
@@ -76349,7 +76349,333 @@
       <c r="Q1355" t="n">
         <v>0</v>
       </c>
-      <c r="R1355" t="inlineStr"/>
+      <c r="R1355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1356" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C1356" t="n">
+        <v>1864.400024414062</v>
+      </c>
+      <c r="D1356" t="n">
+        <v>1832.300048828125</v>
+      </c>
+      <c r="E1356" t="n">
+        <v>1862.400024414062</v>
+      </c>
+      <c r="F1356" t="n">
+        <v>1862.400024414062</v>
+      </c>
+      <c r="G1356" t="n">
+        <v>471853</v>
+      </c>
+      <c r="H1356" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1356" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1356" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1356" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1356" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1356" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1356" t="inlineStr"/>
+    </row>
+    <row r="1357">
+      <c r="A1357" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1357" t="n">
+        <v>1869.599975585938</v>
+      </c>
+      <c r="C1357" t="n">
+        <v>1869.599975585938</v>
+      </c>
+      <c r="D1357" t="n">
+        <v>1803.050048828125</v>
+      </c>
+      <c r="E1357" t="n">
+        <v>1823.199951171875</v>
+      </c>
+      <c r="F1357" t="n">
+        <v>1823.199951171875</v>
+      </c>
+      <c r="G1357" t="n">
+        <v>787729</v>
+      </c>
+      <c r="H1357" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1357" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1357" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1357" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1357" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1357" t="inlineStr"/>
+    </row>
+    <row r="1358">
+      <c r="A1358" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1358" t="n">
+        <v>1817.25</v>
+      </c>
+      <c r="C1358" t="n">
+        <v>1824.75</v>
+      </c>
+      <c r="D1358" t="n">
+        <v>1778.050048828125</v>
+      </c>
+      <c r="E1358" t="n">
+        <v>1818.599975585938</v>
+      </c>
+      <c r="F1358" t="n">
+        <v>1818.599975585938</v>
+      </c>
+      <c r="G1358" t="n">
+        <v>604247</v>
+      </c>
+      <c r="H1358" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1358" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1358" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1358" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1358" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1358" t="inlineStr"/>
+    </row>
+    <row r="1359">
+      <c r="A1359" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1359" t="n">
+        <v>1833.849975585938</v>
+      </c>
+      <c r="C1359" t="n">
+        <v>1834</v>
+      </c>
+      <c r="D1359" t="n">
+        <v>1808.400024414062</v>
+      </c>
+      <c r="E1359" t="n">
+        <v>1816.599975585938</v>
+      </c>
+      <c r="F1359" t="n">
+        <v>1816.599975585938</v>
+      </c>
+      <c r="G1359" t="n">
+        <v>536713</v>
+      </c>
+      <c r="H1359" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1359" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1359" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1359" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1359" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1359" t="inlineStr"/>
+    </row>
+    <row r="1360">
+      <c r="A1360" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1360" t="n">
+        <v>1794.150024414062</v>
+      </c>
+      <c r="C1360" t="n">
+        <v>1852.75</v>
+      </c>
+      <c r="D1360" t="n">
+        <v>1772.599975585938</v>
+      </c>
+      <c r="E1360" t="n">
+        <v>1819.800048828125</v>
+      </c>
+      <c r="F1360" t="n">
+        <v>1819.800048828125</v>
+      </c>
+      <c r="G1360" t="n">
+        <v>1165847</v>
+      </c>
+      <c r="H1360" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1360" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1360" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1360" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1360" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1360" t="inlineStr"/>
+    </row>
+    <row r="1361">
+      <c r="A1361" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1361" t="n">
+        <v>1835</v>
+      </c>
+      <c r="C1361" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D1361" t="n">
+        <v>1786.800048828125</v>
+      </c>
+      <c r="E1361" t="n">
+        <v>1792.199951171875</v>
+      </c>
+      <c r="F1361" t="n">
+        <v>1792.199951171875</v>
+      </c>
+      <c r="G1361" t="n">
+        <v>1109513</v>
+      </c>
+      <c r="H1361" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1361" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1361" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1361" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1361" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1361" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1361"/>
+  <dimension ref="A1:R1362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76405,7 +76405,9 @@
       <c r="Q1356" t="n">
         <v>1</v>
       </c>
-      <c r="R1356" t="inlineStr"/>
+      <c r="R1356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1357">
       <c r="A1357" s="2" t="n">
@@ -76459,7 +76461,9 @@
       <c r="Q1357" t="n">
         <v>0</v>
       </c>
-      <c r="R1357" t="inlineStr"/>
+      <c r="R1357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1358">
       <c r="A1358" s="2" t="n">
@@ -76513,7 +76517,9 @@
       <c r="Q1358" t="n">
         <v>0</v>
       </c>
-      <c r="R1358" t="inlineStr"/>
+      <c r="R1358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1359">
       <c r="A1359" s="2" t="n">
@@ -76567,7 +76573,9 @@
       <c r="Q1359" t="n">
         <v>0</v>
       </c>
-      <c r="R1359" t="inlineStr"/>
+      <c r="R1359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1360">
       <c r="A1360" s="2" t="n">
@@ -76621,7 +76629,9 @@
       <c r="Q1360" t="n">
         <v>0</v>
       </c>
-      <c r="R1360" t="inlineStr"/>
+      <c r="R1360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1361">
       <c r="A1361" s="2" t="n">
@@ -76675,7 +76685,63 @@
       <c r="Q1361" t="n">
         <v>0</v>
       </c>
-      <c r="R1361" t="inlineStr"/>
+      <c r="R1361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1362" t="n">
+        <v>1799.949951171875</v>
+      </c>
+      <c r="C1362" t="n">
+        <v>1820.599975585938</v>
+      </c>
+      <c r="D1362" t="n">
+        <v>1792.849975585938</v>
+      </c>
+      <c r="E1362" t="n">
+        <v>1813.449951171875</v>
+      </c>
+      <c r="F1362" t="n">
+        <v>1813.449951171875</v>
+      </c>
+      <c r="G1362" t="n">
+        <v>759190</v>
+      </c>
+      <c r="H1362" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1362" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1362" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1362" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1362" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1362" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1362"/>
+  <dimension ref="A1:R1367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76741,7 +76741,279 @@
       <c r="Q1362" t="n">
         <v>0</v>
       </c>
-      <c r="R1362" t="inlineStr"/>
+      <c r="R1362" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1363" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C1363" t="n">
+        <v>1858.900024414062</v>
+      </c>
+      <c r="D1363" t="n">
+        <v>1809.900024414062</v>
+      </c>
+      <c r="E1363" t="n">
+        <v>1849.949951171875</v>
+      </c>
+      <c r="F1363" t="n">
+        <v>1849.949951171875</v>
+      </c>
+      <c r="G1363" t="n">
+        <v>393465</v>
+      </c>
+      <c r="H1363" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1363" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1363" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1363" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1363" t="inlineStr"/>
+    </row>
+    <row r="1364">
+      <c r="A1364" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1364" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C1364" t="n">
+        <v>1868</v>
+      </c>
+      <c r="D1364" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E1364" t="n">
+        <v>1839.449951171875</v>
+      </c>
+      <c r="F1364" t="n">
+        <v>1839.449951171875</v>
+      </c>
+      <c r="G1364" t="n">
+        <v>701731</v>
+      </c>
+      <c r="H1364" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1364" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1364" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1364" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1364" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1364" t="inlineStr"/>
+    </row>
+    <row r="1365">
+      <c r="A1365" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1365" t="n">
+        <v>1845</v>
+      </c>
+      <c r="C1365" t="n">
+        <v>1863</v>
+      </c>
+      <c r="D1365" t="n">
+        <v>1830</v>
+      </c>
+      <c r="E1365" t="n">
+        <v>1855.949951171875</v>
+      </c>
+      <c r="F1365" t="n">
+        <v>1855.949951171875</v>
+      </c>
+      <c r="G1365" t="n">
+        <v>381404</v>
+      </c>
+      <c r="H1365" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1365" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1365" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1365" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1365" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1365" t="inlineStr"/>
+    </row>
+    <row r="1366">
+      <c r="A1366" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1366" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C1366" t="n">
+        <v>1870.25</v>
+      </c>
+      <c r="D1366" t="n">
+        <v>1834.099975585938</v>
+      </c>
+      <c r="E1366" t="n">
+        <v>1842.349975585938</v>
+      </c>
+      <c r="F1366" t="n">
+        <v>1842.349975585938</v>
+      </c>
+      <c r="G1366" t="n">
+        <v>452681</v>
+      </c>
+      <c r="H1366" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1366" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1366" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1366" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1366" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1366" t="inlineStr"/>
+    </row>
+    <row r="1367">
+      <c r="A1367" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1367" t="n">
+        <v>1842.949951171875</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>1867.400024414062</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>1833.199951171875</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>1858.150024414062</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>1858.150024414062</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>301490</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1367" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1367" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1367" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1367"/>
+  <dimension ref="A1:R1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -76621,7 +76621,7 @@
         <v>26</v>
       </c>
       <c r="O1360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1360" t="n">
         <v>0</v>
@@ -76797,7 +76797,9 @@
       <c r="Q1363" t="n">
         <v>0</v>
       </c>
-      <c r="R1363" t="inlineStr"/>
+      <c r="R1363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1364">
       <c r="A1364" s="2" t="n">
@@ -76851,7 +76853,9 @@
       <c r="Q1364" t="n">
         <v>0</v>
       </c>
-      <c r="R1364" t="inlineStr"/>
+      <c r="R1364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1365">
       <c r="A1365" s="2" t="n">
@@ -76905,7 +76909,9 @@
       <c r="Q1365" t="n">
         <v>0</v>
       </c>
-      <c r="R1365" t="inlineStr"/>
+      <c r="R1365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1366">
       <c r="A1366" s="2" t="n">
@@ -76959,7 +76965,9 @@
       <c r="Q1366" t="n">
         <v>0</v>
       </c>
-      <c r="R1366" t="inlineStr"/>
+      <c r="R1366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1367">
       <c r="A1367" s="2" t="n">
@@ -77013,7 +77021,171 @@
       <c r="Q1367" t="n">
         <v>0</v>
       </c>
-      <c r="R1367" t="inlineStr"/>
+      <c r="R1367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1368" t="n">
+        <v>1855</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>1865.400024414062</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>1843.599975585938</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>1855.849975585938</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>1855.849975585938</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>169273</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1368" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1368" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1368" t="inlineStr"/>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1369" t="n">
+        <v>1855</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>1881</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>1848.25</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>1867.599975585938</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>1867.599975585938</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>289584</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1369" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1369" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1369" t="inlineStr"/>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1370" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>1874.699951171875</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>1807.650024414062</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>1865.300048828125</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>1865.300048828125</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>477274</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1370" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1370" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1370"/>
+  <dimension ref="A1:R1383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77077,7 +77077,9 @@
       <c r="Q1368" t="n">
         <v>0</v>
       </c>
-      <c r="R1368" t="inlineStr"/>
+      <c r="R1368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1369">
       <c r="A1369" s="2" t="n">
@@ -77131,7 +77133,9 @@
       <c r="Q1369" t="n">
         <v>0</v>
       </c>
-      <c r="R1369" t="inlineStr"/>
+      <c r="R1369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1370">
       <c r="A1370" s="2" t="n">
@@ -77185,7 +77189,711 @@
       <c r="Q1370" t="n">
         <v>0</v>
       </c>
-      <c r="R1370" t="inlineStr"/>
+      <c r="R1370" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1371" t="n">
+        <v>1865</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>1882.650024414062</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>1848.699951171875</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>1865.599975585938</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>1865.599975585938</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>345793</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1371" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1371" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1371" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1371" t="inlineStr"/>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1372" t="n">
+        <v>1879.800048828125</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>1947.300048828125</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>1863</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>1933.599975585938</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>1933.599975585938</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>935891</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1372" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1372" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1372" t="inlineStr"/>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1373" t="n">
+        <v>1945.050048828125</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>1960</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>1913.550048828125</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>1929.199951171875</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>1929.199951171875</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>656450</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1373" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1373" t="n">
+        <v>1</v>
+      </c>
+      <c r="P1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1373" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1373" t="inlineStr"/>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1374" t="n">
+        <v>1940</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>1947.949951171875</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>1891</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>1915.900024414062</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>1915.900024414062</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>475080</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1374" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1374" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1374" t="inlineStr"/>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>1915.900024414062</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>1925.800048828125</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>1888</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>1916.849975585938</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>1916.849975585938</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>321681</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1375" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1375" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1375" t="inlineStr"/>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1376" t="n">
+        <v>1944</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>1944</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>1803.050048828125</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>1818.699951171875</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>1818.699951171875</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>1973247</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1376" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1376" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1376" t="inlineStr"/>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1377" t="n">
+        <v>1802</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>1818.5</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>1767.099975585938</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>1771.150024414062</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>1771.150024414062</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>869025</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1377" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1377" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1377" t="inlineStr"/>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1378" t="n">
+        <v>1779.800048828125</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>1808.449951171875</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>1751.099975585938</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>1778.449951171875</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>1778.449951171875</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>1171376</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1378" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1378" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1378" t="inlineStr"/>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1379" t="n">
+        <v>1781.5</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>1803</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>1769</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>1771.449951171875</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>1771.449951171875</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>460270</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1379" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1379" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1379" t="inlineStr"/>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1380" t="n">
+        <v>1765.050048828125</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>1780</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>1753.449951171875</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>1771.550048828125</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>1771.550048828125</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>522118</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1380" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1380" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1380" t="inlineStr"/>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1381" t="n">
+        <v>1785</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>1842</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>1771</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>1812.199951171875</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>1812.199951171875</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>585129</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1381" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1381" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1381" t="inlineStr"/>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1382" t="n">
+        <v>1822</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>1842</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>1816.650024414062</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>1834.300048828125</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>1834.300048828125</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>507267</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1382" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1382" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1382" t="inlineStr"/>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1383" t="n">
+        <v>1834.300048828125</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>1855.75</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>1826.5</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>1851.800048828125</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>1851.800048828125</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>335728</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1383" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1383" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1383" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1383"/>
+  <dimension ref="A1:R1391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77245,7 +77245,9 @@
       <c r="Q1371" t="n">
         <v>1</v>
       </c>
-      <c r="R1371" t="inlineStr"/>
+      <c r="R1371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1372">
       <c r="A1372" s="2" t="n">
@@ -77299,7 +77301,9 @@
       <c r="Q1372" t="n">
         <v>0</v>
       </c>
-      <c r="R1372" t="inlineStr"/>
+      <c r="R1372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1373">
       <c r="A1373" s="2" t="n">
@@ -77353,7 +77357,9 @@
       <c r="Q1373" t="n">
         <v>0</v>
       </c>
-      <c r="R1373" t="inlineStr"/>
+      <c r="R1373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1374">
       <c r="A1374" s="2" t="n">
@@ -77407,7 +77413,9 @@
       <c r="Q1374" t="n">
         <v>0</v>
       </c>
-      <c r="R1374" t="inlineStr"/>
+      <c r="R1374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1375">
       <c r="A1375" s="2" t="n">
@@ -77461,7 +77469,9 @@
       <c r="Q1375" t="n">
         <v>0</v>
       </c>
-      <c r="R1375" t="inlineStr"/>
+      <c r="R1375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
@@ -77515,7 +77525,9 @@
       <c r="Q1376" t="n">
         <v>0</v>
       </c>
-      <c r="R1376" t="inlineStr"/>
+      <c r="R1376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1377">
       <c r="A1377" s="2" t="n">
@@ -77569,7 +77581,9 @@
       <c r="Q1377" t="n">
         <v>0</v>
       </c>
-      <c r="R1377" t="inlineStr"/>
+      <c r="R1377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1378">
       <c r="A1378" s="2" t="n">
@@ -77623,7 +77637,9 @@
       <c r="Q1378" t="n">
         <v>0</v>
       </c>
-      <c r="R1378" t="inlineStr"/>
+      <c r="R1378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
@@ -77677,7 +77693,9 @@
       <c r="Q1379" t="n">
         <v>0</v>
       </c>
-      <c r="R1379" t="inlineStr"/>
+      <c r="R1379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1380">
       <c r="A1380" s="2" t="n">
@@ -77731,7 +77749,9 @@
       <c r="Q1380" t="n">
         <v>0</v>
       </c>
-      <c r="R1380" t="inlineStr"/>
+      <c r="R1380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1381">
       <c r="A1381" s="2" t="n">
@@ -77785,7 +77805,9 @@
       <c r="Q1381" t="n">
         <v>0</v>
       </c>
-      <c r="R1381" t="inlineStr"/>
+      <c r="R1381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1382">
       <c r="A1382" s="2" t="n">
@@ -77839,7 +77861,9 @@
       <c r="Q1382" t="n">
         <v>0</v>
       </c>
-      <c r="R1382" t="inlineStr"/>
+      <c r="R1382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1383">
       <c r="A1383" s="2" t="n">
@@ -77893,7 +77917,441 @@
       <c r="Q1383" t="n">
         <v>0</v>
       </c>
-      <c r="R1383" t="inlineStr"/>
+      <c r="R1383" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1384" t="n">
+        <v>1868.449951171875</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>1869</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>1841.449951171875</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>1850.550048828125</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>1850.550048828125</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>369988</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1384" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1384" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1384" t="inlineStr"/>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1385" t="n">
+        <v>1845.099975585938</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>1866</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>1803.449951171875</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>1813.25</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>1813.25</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>378106</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1385" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1385" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1385" t="inlineStr"/>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1386" t="n">
+        <v>1800.099975585938</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>1822</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>1785.349975585938</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>1798.699951171875</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>1798.699951171875</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>133225</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1386" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1386" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1386" t="inlineStr"/>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1387" t="n">
+        <v>1782.75</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>1788.349975585938</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>1744.050048828125</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>1756.550048828125</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>1756.550048828125</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>283332</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1387" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1387" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1387" t="inlineStr"/>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1388" t="n">
+        <v>1757</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>1794.199951171875</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>1722.199951171875</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>1730.75</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>1730.75</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>288669</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1388" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1388" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1388" t="inlineStr"/>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1389" t="n">
+        <v>1736.949951171875</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>1766.300048828125</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>1724.25</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>1757.75</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>1757.75</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>963145</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1389" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1389" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1389" t="inlineStr"/>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1390" t="n">
+        <v>1757.800048828125</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>1777.550048828125</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>1735</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>1770.050048828125</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>1770.050048828125</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>890191</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1390" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1390" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1390" t="inlineStr"/>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1391" t="n">
+        <v>1770</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>1789.900024414062</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>1736.5</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>1740.599975585938</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>1740.599975585938</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>245783</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1391" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1391" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1391" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1391"/>
+  <dimension ref="A1:R1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -77973,7 +77973,9 @@
       <c r="Q1384" t="n">
         <v>0</v>
       </c>
-      <c r="R1384" t="inlineStr"/>
+      <c r="R1384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1385">
       <c r="A1385" s="2" t="n">
@@ -78027,7 +78029,9 @@
       <c r="Q1385" t="n">
         <v>0</v>
       </c>
-      <c r="R1385" t="inlineStr"/>
+      <c r="R1385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1386">
       <c r="A1386" s="2" t="n">
@@ -78081,7 +78085,9 @@
       <c r="Q1386" t="n">
         <v>0</v>
       </c>
-      <c r="R1386" t="inlineStr"/>
+      <c r="R1386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1387">
       <c r="A1387" s="2" t="n">
@@ -78135,7 +78141,9 @@
       <c r="Q1387" t="n">
         <v>0</v>
       </c>
-      <c r="R1387" t="inlineStr"/>
+      <c r="R1387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1388">
       <c r="A1388" s="2" t="n">
@@ -78189,7 +78197,9 @@
       <c r="Q1388" t="n">
         <v>0</v>
       </c>
-      <c r="R1388" t="inlineStr"/>
+      <c r="R1388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1389">
       <c r="A1389" s="2" t="n">
@@ -78243,7 +78253,9 @@
       <c r="Q1389" t="n">
         <v>0</v>
       </c>
-      <c r="R1389" t="inlineStr"/>
+      <c r="R1389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1390">
       <c r="A1390" s="2" t="n">
@@ -78297,7 +78309,9 @@
       <c r="Q1390" t="n">
         <v>0</v>
       </c>
-      <c r="R1390" t="inlineStr"/>
+      <c r="R1390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1391">
       <c r="A1391" s="2" t="n">
@@ -78351,7 +78365,225 @@
       <c r="Q1391" t="n">
         <v>0</v>
       </c>
-      <c r="R1391" t="inlineStr"/>
+      <c r="R1391" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1392" t="n">
+        <v>1753.099975585938</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>1754</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>1726.150024414062</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>1745</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>1745</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>504771</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1392" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1392" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1392" t="inlineStr"/>
+    </row>
+    <row r="1393">
+      <c r="A1393" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1393" t="n">
+        <v>1735</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>1746.949951171875</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>1719.199951171875</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>1735.25</v>
+      </c>
+      <c r="F1393" t="n">
+        <v>1735.25</v>
+      </c>
+      <c r="G1393" t="n">
+        <v>326808</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1393" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1393" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1393" t="inlineStr"/>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>1735.25</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>1737.650024414062</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>1705.449951171875</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>1726.449951171875</v>
+      </c>
+      <c r="F1394" t="n">
+        <v>1726.449951171875</v>
+      </c>
+      <c r="G1394" t="n">
+        <v>274182</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1394" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1394" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1394" t="inlineStr"/>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1395" t="n">
+        <v>1730</v>
+      </c>
+      <c r="C1395" t="n">
+        <v>1754.75</v>
+      </c>
+      <c r="D1395" t="n">
+        <v>1726.449951171875</v>
+      </c>
+      <c r="E1395" t="n">
+        <v>1750.800048828125</v>
+      </c>
+      <c r="F1395" t="n">
+        <v>1750.800048828125</v>
+      </c>
+      <c r="G1395" t="n">
+        <v>320327</v>
+      </c>
+      <c r="H1395" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1395" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1395" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1395" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1395" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1395"/>
+  <dimension ref="A1:R1400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78421,7 +78421,9 @@
       <c r="Q1392" t="n">
         <v>0</v>
       </c>
-      <c r="R1392" t="inlineStr"/>
+      <c r="R1392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
@@ -78475,7 +78477,9 @@
       <c r="Q1393" t="n">
         <v>0</v>
       </c>
-      <c r="R1393" t="inlineStr"/>
+      <c r="R1393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1394">
       <c r="A1394" s="2" t="n">
@@ -78529,7 +78533,9 @@
       <c r="Q1394" t="n">
         <v>0</v>
       </c>
-      <c r="R1394" t="inlineStr"/>
+      <c r="R1394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1395">
       <c r="A1395" s="2" t="n">
@@ -78583,7 +78589,279 @@
       <c r="Q1395" t="n">
         <v>0</v>
       </c>
-      <c r="R1395" t="inlineStr"/>
+      <c r="R1395" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1396" t="n">
+        <v>1757.949951171875</v>
+      </c>
+      <c r="C1396" t="n">
+        <v>1786.349975585938</v>
+      </c>
+      <c r="D1396" t="n">
+        <v>1755.849975585938</v>
+      </c>
+      <c r="E1396" t="n">
+        <v>1768.949951171875</v>
+      </c>
+      <c r="F1396" t="n">
+        <v>1768.949951171875</v>
+      </c>
+      <c r="G1396" t="n">
+        <v>525217</v>
+      </c>
+      <c r="H1396" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1396" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1396" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1396" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1396" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1396" t="inlineStr"/>
+    </row>
+    <row r="1397">
+      <c r="A1397" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1397" t="n">
+        <v>1771.800048828125</v>
+      </c>
+      <c r="C1397" t="n">
+        <v>1782.550048828125</v>
+      </c>
+      <c r="D1397" t="n">
+        <v>1751.699951171875</v>
+      </c>
+      <c r="E1397" t="n">
+        <v>1767.699951171875</v>
+      </c>
+      <c r="F1397" t="n">
+        <v>1767.699951171875</v>
+      </c>
+      <c r="G1397" t="n">
+        <v>706544</v>
+      </c>
+      <c r="H1397" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1397" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1397" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1397" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1397" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1397" t="inlineStr"/>
+    </row>
+    <row r="1398">
+      <c r="A1398" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1398" t="n">
+        <v>1757.5</v>
+      </c>
+      <c r="C1398" t="n">
+        <v>1773</v>
+      </c>
+      <c r="D1398" t="n">
+        <v>1752.400024414062</v>
+      </c>
+      <c r="E1398" t="n">
+        <v>1755.449951171875</v>
+      </c>
+      <c r="F1398" t="n">
+        <v>1755.449951171875</v>
+      </c>
+      <c r="G1398" t="n">
+        <v>339297</v>
+      </c>
+      <c r="H1398" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1398" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1398" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1398" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1398" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1398" t="inlineStr"/>
+    </row>
+    <row r="1399">
+      <c r="A1399" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1399" t="n">
+        <v>1756.75</v>
+      </c>
+      <c r="C1399" t="n">
+        <v>1803.449951171875</v>
+      </c>
+      <c r="D1399" t="n">
+        <v>1756.75</v>
+      </c>
+      <c r="E1399" t="n">
+        <v>1799.400024414062</v>
+      </c>
+      <c r="F1399" t="n">
+        <v>1799.400024414062</v>
+      </c>
+      <c r="G1399" t="n">
+        <v>841113</v>
+      </c>
+      <c r="H1399" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1399" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1399" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1399" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1399" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1399" t="inlineStr"/>
+    </row>
+    <row r="1400">
+      <c r="A1400" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1400" t="n">
+        <v>1804</v>
+      </c>
+      <c r="C1400" t="n">
+        <v>1809</v>
+      </c>
+      <c r="D1400" t="n">
+        <v>1778.25</v>
+      </c>
+      <c r="E1400" t="n">
+        <v>1804.050048828125</v>
+      </c>
+      <c r="F1400" t="n">
+        <v>1804.050048828125</v>
+      </c>
+      <c r="G1400" t="n">
+        <v>310776</v>
+      </c>
+      <c r="H1400" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1400" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1400" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1400" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1400" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1400" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1400"/>
+  <dimension ref="A1:R1404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78525,7 +78525,7 @@
         <v>33</v>
       </c>
       <c r="O1394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1394" t="n">
         <v>0</v>
@@ -78645,7 +78645,9 @@
       <c r="Q1396" t="n">
         <v>0</v>
       </c>
-      <c r="R1396" t="inlineStr"/>
+      <c r="R1396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1397">
       <c r="A1397" s="2" t="n">
@@ -78699,7 +78701,9 @@
       <c r="Q1397" t="n">
         <v>0</v>
       </c>
-      <c r="R1397" t="inlineStr"/>
+      <c r="R1397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1398">
       <c r="A1398" s="2" t="n">
@@ -78753,7 +78757,9 @@
       <c r="Q1398" t="n">
         <v>0</v>
       </c>
-      <c r="R1398" t="inlineStr"/>
+      <c r="R1398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1399">
       <c r="A1399" s="2" t="n">
@@ -78807,7 +78813,9 @@
       <c r="Q1399" t="n">
         <v>0</v>
       </c>
-      <c r="R1399" t="inlineStr"/>
+      <c r="R1399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1400">
       <c r="A1400" s="2" t="n">
@@ -78861,7 +78869,225 @@
       <c r="Q1400" t="n">
         <v>0</v>
       </c>
-      <c r="R1400" t="inlineStr"/>
+      <c r="R1400" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1401" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C1401" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D1401" t="n">
+        <v>1791.550048828125</v>
+      </c>
+      <c r="E1401" t="n">
+        <v>1814.900024414062</v>
+      </c>
+      <c r="F1401" t="n">
+        <v>1814.900024414062</v>
+      </c>
+      <c r="G1401" t="n">
+        <v>248874</v>
+      </c>
+      <c r="H1401" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1401" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1401" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1401" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1401" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1401" t="inlineStr"/>
+    </row>
+    <row r="1402">
+      <c r="A1402" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1402" t="n">
+        <v>1815</v>
+      </c>
+      <c r="C1402" t="n">
+        <v>1832</v>
+      </c>
+      <c r="D1402" t="n">
+        <v>1810</v>
+      </c>
+      <c r="E1402" t="n">
+        <v>1821.800048828125</v>
+      </c>
+      <c r="F1402" t="n">
+        <v>1821.800048828125</v>
+      </c>
+      <c r="G1402" t="n">
+        <v>212638</v>
+      </c>
+      <c r="H1402" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1402" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1402" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1402" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1402" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1402" t="inlineStr"/>
+    </row>
+    <row r="1403">
+      <c r="A1403" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1403" t="n">
+        <v>1813.400024414062</v>
+      </c>
+      <c r="C1403" t="n">
+        <v>1837.849975585938</v>
+      </c>
+      <c r="D1403" t="n">
+        <v>1810.400024414062</v>
+      </c>
+      <c r="E1403" t="n">
+        <v>1824.300048828125</v>
+      </c>
+      <c r="F1403" t="n">
+        <v>1824.300048828125</v>
+      </c>
+      <c r="G1403" t="n">
+        <v>487809</v>
+      </c>
+      <c r="H1403" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1403" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1403" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1403" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1403" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1403" t="inlineStr"/>
+    </row>
+    <row r="1404">
+      <c r="A1404" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1404" t="n">
+        <v>1824.599975585938</v>
+      </c>
+      <c r="C1404" t="n">
+        <v>1856.900024414062</v>
+      </c>
+      <c r="D1404" t="n">
+        <v>1820</v>
+      </c>
+      <c r="E1404" t="n">
+        <v>1845.650024414062</v>
+      </c>
+      <c r="F1404" t="n">
+        <v>1845.650024414062</v>
+      </c>
+      <c r="G1404" t="n">
+        <v>1490048</v>
+      </c>
+      <c r="H1404" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1404" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1404" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1404" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1404" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1404" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1404"/>
+  <dimension ref="A1:R1410"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78925,7 +78925,9 @@
       <c r="Q1401" t="n">
         <v>0</v>
       </c>
-      <c r="R1401" t="inlineStr"/>
+      <c r="R1401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1402">
       <c r="A1402" s="2" t="n">
@@ -78979,7 +78981,9 @@
       <c r="Q1402" t="n">
         <v>0</v>
       </c>
-      <c r="R1402" t="inlineStr"/>
+      <c r="R1402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1403">
       <c r="A1403" s="2" t="n">
@@ -79033,7 +79037,9 @@
       <c r="Q1403" t="n">
         <v>0</v>
       </c>
-      <c r="R1403" t="inlineStr"/>
+      <c r="R1403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1404">
       <c r="A1404" s="2" t="n">
@@ -79087,7 +79093,333 @@
       <c r="Q1404" t="n">
         <v>0</v>
       </c>
-      <c r="R1404" t="inlineStr"/>
+      <c r="R1404" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1405" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C1405" t="n">
+        <v>1894.800048828125</v>
+      </c>
+      <c r="D1405" t="n">
+        <v>1855.150024414062</v>
+      </c>
+      <c r="E1405" t="n">
+        <v>1891.050048828125</v>
+      </c>
+      <c r="F1405" t="n">
+        <v>1891.050048828125</v>
+      </c>
+      <c r="G1405" t="n">
+        <v>391676</v>
+      </c>
+      <c r="H1405" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1405" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1405" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1405" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1405" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1405" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1405" t="inlineStr"/>
+    </row>
+    <row r="1406">
+      <c r="A1406" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1406" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C1406" t="n">
+        <v>1940</v>
+      </c>
+      <c r="D1406" t="n">
+        <v>1900</v>
+      </c>
+      <c r="E1406" t="n">
+        <v>1920</v>
+      </c>
+      <c r="F1406" t="n">
+        <v>1920</v>
+      </c>
+      <c r="G1406" t="n">
+        <v>691613</v>
+      </c>
+      <c r="H1406" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1406" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1406" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1406" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1406" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1406" t="inlineStr"/>
+    </row>
+    <row r="1407">
+      <c r="A1407" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1407" t="n">
+        <v>1924.75</v>
+      </c>
+      <c r="C1407" t="n">
+        <v>1930</v>
+      </c>
+      <c r="D1407" t="n">
+        <v>1904</v>
+      </c>
+      <c r="E1407" t="n">
+        <v>1915.5</v>
+      </c>
+      <c r="F1407" t="n">
+        <v>1915.5</v>
+      </c>
+      <c r="G1407" t="n">
+        <v>220625</v>
+      </c>
+      <c r="H1407" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1407" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1407" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1407" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1407" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1407" t="inlineStr"/>
+    </row>
+    <row r="1408">
+      <c r="A1408" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1408" t="n">
+        <v>1907.400024414062</v>
+      </c>
+      <c r="C1408" t="n">
+        <v>1935</v>
+      </c>
+      <c r="D1408" t="n">
+        <v>1895.5</v>
+      </c>
+      <c r="E1408" t="n">
+        <v>1926.599975585938</v>
+      </c>
+      <c r="F1408" t="n">
+        <v>1926.599975585938</v>
+      </c>
+      <c r="G1408" t="n">
+        <v>330319</v>
+      </c>
+      <c r="H1408" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1408" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1408" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1408" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1408" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1408" t="inlineStr"/>
+    </row>
+    <row r="1409">
+      <c r="A1409" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1409" t="n">
+        <v>1927</v>
+      </c>
+      <c r="C1409" t="n">
+        <v>1945.849975585938</v>
+      </c>
+      <c r="D1409" t="n">
+        <v>1896.050048828125</v>
+      </c>
+      <c r="E1409" t="n">
+        <v>1913.75</v>
+      </c>
+      <c r="F1409" t="n">
+        <v>1913.75</v>
+      </c>
+      <c r="G1409" t="n">
+        <v>208254</v>
+      </c>
+      <c r="H1409" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1409" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1409" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1409" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1409" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1409" t="inlineStr"/>
+    </row>
+    <row r="1410">
+      <c r="A1410" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1410" t="n">
+        <v>1919.949951171875</v>
+      </c>
+      <c r="C1410" t="n">
+        <v>1922.75</v>
+      </c>
+      <c r="D1410" t="n">
+        <v>1865</v>
+      </c>
+      <c r="E1410" t="n">
+        <v>1876.25</v>
+      </c>
+      <c r="F1410" t="n">
+        <v>1876.25</v>
+      </c>
+      <c r="G1410" t="n">
+        <v>231490</v>
+      </c>
+      <c r="H1410" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1410" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1410" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1410" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1410" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1410" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1410"/>
+  <dimension ref="A1:R1415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79149,7 +79149,9 @@
       <c r="Q1405" t="n">
         <v>1</v>
       </c>
-      <c r="R1405" t="inlineStr"/>
+      <c r="R1405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1406">
       <c r="A1406" s="2" t="n">
@@ -79203,7 +79205,9 @@
       <c r="Q1406" t="n">
         <v>0</v>
       </c>
-      <c r="R1406" t="inlineStr"/>
+      <c r="R1406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1407">
       <c r="A1407" s="2" t="n">
@@ -79257,7 +79261,9 @@
       <c r="Q1407" t="n">
         <v>0</v>
       </c>
-      <c r="R1407" t="inlineStr"/>
+      <c r="R1407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1408">
       <c r="A1408" s="2" t="n">
@@ -79311,7 +79317,9 @@
       <c r="Q1408" t="n">
         <v>0</v>
       </c>
-      <c r="R1408" t="inlineStr"/>
+      <c r="R1408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1409">
       <c r="A1409" s="2" t="n">
@@ -79365,7 +79373,9 @@
       <c r="Q1409" t="n">
         <v>0</v>
       </c>
-      <c r="R1409" t="inlineStr"/>
+      <c r="R1409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1410">
       <c r="A1410" s="2" t="n">
@@ -79419,7 +79429,279 @@
       <c r="Q1410" t="n">
         <v>0</v>
       </c>
-      <c r="R1410" t="inlineStr"/>
+      <c r="R1410" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1411" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C1411" t="n">
+        <v>1884.949951171875</v>
+      </c>
+      <c r="D1411" t="n">
+        <v>1833.099975585938</v>
+      </c>
+      <c r="E1411" t="n">
+        <v>1875.650024414062</v>
+      </c>
+      <c r="F1411" t="n">
+        <v>1875.650024414062</v>
+      </c>
+      <c r="G1411" t="n">
+        <v>200041</v>
+      </c>
+      <c r="H1411" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1411" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1411" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1411" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1411" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1411" t="inlineStr"/>
+    </row>
+    <row r="1412">
+      <c r="A1412" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1412" t="n">
+        <v>1887.349975585938</v>
+      </c>
+      <c r="C1412" t="n">
+        <v>1912.449951171875</v>
+      </c>
+      <c r="D1412" t="n">
+        <v>1879.75</v>
+      </c>
+      <c r="E1412" t="n">
+        <v>1887.400024414062</v>
+      </c>
+      <c r="F1412" t="n">
+        <v>1887.400024414062</v>
+      </c>
+      <c r="G1412" t="n">
+        <v>227024</v>
+      </c>
+      <c r="H1412" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1412" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1412" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1412" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1412" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1412" t="inlineStr"/>
+    </row>
+    <row r="1413">
+      <c r="A1413" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1413" t="n">
+        <v>1887.400024414062</v>
+      </c>
+      <c r="C1413" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D1413" t="n">
+        <v>1875.050048828125</v>
+      </c>
+      <c r="E1413" t="n">
+        <v>1898.849975585938</v>
+      </c>
+      <c r="F1413" t="n">
+        <v>1898.849975585938</v>
+      </c>
+      <c r="G1413" t="n">
+        <v>279809</v>
+      </c>
+      <c r="H1413" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1413" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1413" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1413" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1413" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1413" t="inlineStr"/>
+    </row>
+    <row r="1414">
+      <c r="A1414" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1414" t="n">
+        <v>1905</v>
+      </c>
+      <c r="C1414" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D1414" t="n">
+        <v>1875.050048828125</v>
+      </c>
+      <c r="E1414" t="n">
+        <v>1887.349975585938</v>
+      </c>
+      <c r="F1414" t="n">
+        <v>1887.349975585938</v>
+      </c>
+      <c r="G1414" t="n">
+        <v>108319</v>
+      </c>
+      <c r="H1414" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1414" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1414" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1414" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1414" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1414" t="inlineStr"/>
+    </row>
+    <row r="1415">
+      <c r="A1415" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1415" t="n">
+        <v>1887.349975585938</v>
+      </c>
+      <c r="C1415" t="n">
+        <v>1913.150024414062</v>
+      </c>
+      <c r="D1415" t="n">
+        <v>1882.099975585938</v>
+      </c>
+      <c r="E1415" t="n">
+        <v>1902.099975585938</v>
+      </c>
+      <c r="F1415" t="n">
+        <v>1902.099975585938</v>
+      </c>
+      <c r="G1415" t="n">
+        <v>117433</v>
+      </c>
+      <c r="H1415" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1415" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1415" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1415" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1415" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1415" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1415"/>
+  <dimension ref="A1:R1420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79365,7 +79365,7 @@
         <v>36</v>
       </c>
       <c r="O1409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1409" t="n">
         <v>0</v>
@@ -79485,7 +79485,9 @@
       <c r="Q1411" t="n">
         <v>0</v>
       </c>
-      <c r="R1411" t="inlineStr"/>
+      <c r="R1411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1412">
       <c r="A1412" s="2" t="n">
@@ -79539,7 +79541,9 @@
       <c r="Q1412" t="n">
         <v>0</v>
       </c>
-      <c r="R1412" t="inlineStr"/>
+      <c r="R1412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1413">
       <c r="A1413" s="2" t="n">
@@ -79593,7 +79597,9 @@
       <c r="Q1413" t="n">
         <v>0</v>
       </c>
-      <c r="R1413" t="inlineStr"/>
+      <c r="R1413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1414">
       <c r="A1414" s="2" t="n">
@@ -79647,7 +79653,9 @@
       <c r="Q1414" t="n">
         <v>0</v>
       </c>
-      <c r="R1414" t="inlineStr"/>
+      <c r="R1414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1415">
       <c r="A1415" s="2" t="n">
@@ -79701,7 +79709,279 @@
       <c r="Q1415" t="n">
         <v>0</v>
       </c>
-      <c r="R1415" t="inlineStr"/>
+      <c r="R1415" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1416" t="n">
+        <v>1913.300048828125</v>
+      </c>
+      <c r="C1416" t="n">
+        <v>1917.400024414062</v>
+      </c>
+      <c r="D1416" t="n">
+        <v>1851.599975585938</v>
+      </c>
+      <c r="E1416" t="n">
+        <v>1856.550048828125</v>
+      </c>
+      <c r="F1416" t="n">
+        <v>1856.550048828125</v>
+      </c>
+      <c r="G1416" t="n">
+        <v>141288</v>
+      </c>
+      <c r="H1416" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1416" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1416" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1416" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1416" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1416" t="inlineStr"/>
+    </row>
+    <row r="1417">
+      <c r="A1417" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1417" t="n">
+        <v>1858.949951171875</v>
+      </c>
+      <c r="C1417" t="n">
+        <v>1861.099975585938</v>
+      </c>
+      <c r="D1417" t="n">
+        <v>1818.550048828125</v>
+      </c>
+      <c r="E1417" t="n">
+        <v>1822</v>
+      </c>
+      <c r="F1417" t="n">
+        <v>1822</v>
+      </c>
+      <c r="G1417" t="n">
+        <v>159454</v>
+      </c>
+      <c r="H1417" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1417" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1417" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1417" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1417" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1417" t="inlineStr"/>
+    </row>
+    <row r="1418">
+      <c r="A1418" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1418" t="n">
+        <v>1822</v>
+      </c>
+      <c r="C1418" t="n">
+        <v>1861.349975585938</v>
+      </c>
+      <c r="D1418" t="n">
+        <v>1812.599975585938</v>
+      </c>
+      <c r="E1418" t="n">
+        <v>1834.449951171875</v>
+      </c>
+      <c r="F1418" t="n">
+        <v>1834.449951171875</v>
+      </c>
+      <c r="G1418" t="n">
+        <v>300065</v>
+      </c>
+      <c r="H1418" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1418" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1418" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1418" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1418" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1418" t="inlineStr"/>
+    </row>
+    <row r="1419">
+      <c r="A1419" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1419" t="n">
+        <v>1839.949951171875</v>
+      </c>
+      <c r="C1419" t="n">
+        <v>1844.25</v>
+      </c>
+      <c r="D1419" t="n">
+        <v>1794.25</v>
+      </c>
+      <c r="E1419" t="n">
+        <v>1822.25</v>
+      </c>
+      <c r="F1419" t="n">
+        <v>1822.25</v>
+      </c>
+      <c r="G1419" t="n">
+        <v>265606</v>
+      </c>
+      <c r="H1419" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1419" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1419" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1419" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1419" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1419" t="inlineStr"/>
+    </row>
+    <row r="1420">
+      <c r="A1420" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1420" t="n">
+        <v>1829</v>
+      </c>
+      <c r="C1420" t="n">
+        <v>1853.449951171875</v>
+      </c>
+      <c r="D1420" t="n">
+        <v>1819.800048828125</v>
+      </c>
+      <c r="E1420" t="n">
+        <v>1835.900024414062</v>
+      </c>
+      <c r="F1420" t="n">
+        <v>1835.900024414062</v>
+      </c>
+      <c r="G1420" t="n">
+        <v>478941</v>
+      </c>
+      <c r="H1420" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1420" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1420" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1420" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1420" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1420" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1420" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1420"/>
+  <dimension ref="A1:R1425"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79765,7 +79765,9 @@
       <c r="Q1416" t="n">
         <v>0</v>
       </c>
-      <c r="R1416" t="inlineStr"/>
+      <c r="R1416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1417">
       <c r="A1417" s="2" t="n">
@@ -79819,7 +79821,9 @@
       <c r="Q1417" t="n">
         <v>0</v>
       </c>
-      <c r="R1417" t="inlineStr"/>
+      <c r="R1417" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1418">
       <c r="A1418" s="2" t="n">
@@ -79873,7 +79877,9 @@
       <c r="Q1418" t="n">
         <v>0</v>
       </c>
-      <c r="R1418" t="inlineStr"/>
+      <c r="R1418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1419">
       <c r="A1419" s="2" t="n">
@@ -79927,7 +79933,9 @@
       <c r="Q1419" t="n">
         <v>0</v>
       </c>
-      <c r="R1419" t="inlineStr"/>
+      <c r="R1419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1420">
       <c r="A1420" s="2" t="n">
@@ -79981,7 +79989,279 @@
       <c r="Q1420" t="n">
         <v>0</v>
       </c>
-      <c r="R1420" t="inlineStr"/>
+      <c r="R1420" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1421" t="n">
+        <v>1840</v>
+      </c>
+      <c r="C1421" t="n">
+        <v>1905</v>
+      </c>
+      <c r="D1421" t="n">
+        <v>1837.150024414062</v>
+      </c>
+      <c r="E1421" t="n">
+        <v>1900.099975585938</v>
+      </c>
+      <c r="F1421" t="n">
+        <v>1900.099975585938</v>
+      </c>
+      <c r="G1421" t="n">
+        <v>365788</v>
+      </c>
+      <c r="H1421" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1421" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1421" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1421" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1421" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1421" t="inlineStr"/>
+    </row>
+    <row r="1422">
+      <c r="A1422" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1422" t="n">
+        <v>1905.050048828125</v>
+      </c>
+      <c r="C1422" t="n">
+        <v>1933.849975585938</v>
+      </c>
+      <c r="D1422" t="n">
+        <v>1895.25</v>
+      </c>
+      <c r="E1422" t="n">
+        <v>1929.699951171875</v>
+      </c>
+      <c r="F1422" t="n">
+        <v>1929.699951171875</v>
+      </c>
+      <c r="G1422" t="n">
+        <v>523938</v>
+      </c>
+      <c r="H1422" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1422" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1422" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1422" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1422" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1422" t="inlineStr"/>
+    </row>
+    <row r="1423">
+      <c r="A1423" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1423" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C1423" t="n">
+        <v>1938.800048828125</v>
+      </c>
+      <c r="D1423" t="n">
+        <v>1904.5</v>
+      </c>
+      <c r="E1423" t="n">
+        <v>1910.349975585938</v>
+      </c>
+      <c r="F1423" t="n">
+        <v>1910.349975585938</v>
+      </c>
+      <c r="G1423" t="n">
+        <v>290182</v>
+      </c>
+      <c r="H1423" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1423" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1423" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1423" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1423" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1423" t="inlineStr"/>
+    </row>
+    <row r="1424">
+      <c r="A1424" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1424" t="n">
+        <v>1918.449951171875</v>
+      </c>
+      <c r="C1424" t="n">
+        <v>1925</v>
+      </c>
+      <c r="D1424" t="n">
+        <v>1904.5</v>
+      </c>
+      <c r="E1424" t="n">
+        <v>1915.75</v>
+      </c>
+      <c r="F1424" t="n">
+        <v>1915.75</v>
+      </c>
+      <c r="G1424" t="n">
+        <v>215198</v>
+      </c>
+      <c r="H1424" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1424" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1424" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1424" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1424" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1424" t="inlineStr"/>
+    </row>
+    <row r="1425">
+      <c r="A1425" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1425" t="n">
+        <v>1934</v>
+      </c>
+      <c r="C1425" t="n">
+        <v>1982.949951171875</v>
+      </c>
+      <c r="D1425" t="n">
+        <v>1888.050048828125</v>
+      </c>
+      <c r="E1425" t="n">
+        <v>1894.75</v>
+      </c>
+      <c r="F1425" t="n">
+        <v>1894.75</v>
+      </c>
+      <c r="G1425" t="n">
+        <v>1532801</v>
+      </c>
+      <c r="H1425" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1425" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1425" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1425" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1425" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1425" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1425"/>
+  <dimension ref="A1:R1429"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79925,7 +79925,7 @@
         <v>38</v>
       </c>
       <c r="O1419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1419" t="n">
         <v>0</v>
@@ -80045,7 +80045,9 @@
       <c r="Q1421" t="n">
         <v>0</v>
       </c>
-      <c r="R1421" t="inlineStr"/>
+      <c r="R1421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1422">
       <c r="A1422" s="2" t="n">
@@ -80099,7 +80101,9 @@
       <c r="Q1422" t="n">
         <v>0</v>
       </c>
-      <c r="R1422" t="inlineStr"/>
+      <c r="R1422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1423">
       <c r="A1423" s="2" t="n">
@@ -80153,7 +80157,9 @@
       <c r="Q1423" t="n">
         <v>0</v>
       </c>
-      <c r="R1423" t="inlineStr"/>
+      <c r="R1423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1424">
       <c r="A1424" s="2" t="n">
@@ -80207,7 +80213,9 @@
       <c r="Q1424" t="n">
         <v>0</v>
       </c>
-      <c r="R1424" t="inlineStr"/>
+      <c r="R1424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1425">
       <c r="A1425" s="2" t="n">
@@ -80261,7 +80269,225 @@
       <c r="Q1425" t="n">
         <v>0</v>
       </c>
-      <c r="R1425" t="inlineStr"/>
+      <c r="R1425" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1426" t="n">
+        <v>1904.949951171875</v>
+      </c>
+      <c r="C1426" t="n">
+        <v>1954.400024414062</v>
+      </c>
+      <c r="D1426" t="n">
+        <v>1889.449951171875</v>
+      </c>
+      <c r="E1426" t="n">
+        <v>1933.199951171875</v>
+      </c>
+      <c r="F1426" t="n">
+        <v>1933.199951171875</v>
+      </c>
+      <c r="G1426" t="n">
+        <v>450470</v>
+      </c>
+      <c r="H1426" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1426" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1426" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1426" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1426" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1426" t="inlineStr"/>
+    </row>
+    <row r="1427">
+      <c r="A1427" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1427" t="n">
+        <v>1930</v>
+      </c>
+      <c r="C1427" t="n">
+        <v>1968.449951171875</v>
+      </c>
+      <c r="D1427" t="n">
+        <v>1930</v>
+      </c>
+      <c r="E1427" t="n">
+        <v>1956.550048828125</v>
+      </c>
+      <c r="F1427" t="n">
+        <v>1956.550048828125</v>
+      </c>
+      <c r="G1427" t="n">
+        <v>436878</v>
+      </c>
+      <c r="H1427" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1427" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1427" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1427" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1427" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1427" t="inlineStr"/>
+    </row>
+    <row r="1428">
+      <c r="A1428" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1428" t="n">
+        <v>1932.150024414062</v>
+      </c>
+      <c r="C1428" t="n">
+        <v>1973.400024414062</v>
+      </c>
+      <c r="D1428" t="n">
+        <v>1932.099975585938</v>
+      </c>
+      <c r="E1428" t="n">
+        <v>1950</v>
+      </c>
+      <c r="F1428" t="n">
+        <v>1950</v>
+      </c>
+      <c r="G1428" t="n">
+        <v>655833</v>
+      </c>
+      <c r="H1428" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1428" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1428" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1428" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1428" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1428" t="inlineStr"/>
+    </row>
+    <row r="1429">
+      <c r="A1429" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1429" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C1429" t="n">
+        <v>1982</v>
+      </c>
+      <c r="D1429" t="n">
+        <v>1912.550048828125</v>
+      </c>
+      <c r="E1429" t="n">
+        <v>1937.5</v>
+      </c>
+      <c r="F1429" t="n">
+        <v>1937.5</v>
+      </c>
+      <c r="G1429" t="n">
+        <v>409735</v>
+      </c>
+      <c r="H1429" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1429" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1429" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1429" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1429" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1429" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1429"/>
+  <dimension ref="A1:R1434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80325,7 +80325,9 @@
       <c r="Q1426" t="n">
         <v>0</v>
       </c>
-      <c r="R1426" t="inlineStr"/>
+      <c r="R1426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1427">
       <c r="A1427" s="2" t="n">
@@ -80379,7 +80381,9 @@
       <c r="Q1427" t="n">
         <v>0</v>
       </c>
-      <c r="R1427" t="inlineStr"/>
+      <c r="R1427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1428">
       <c r="A1428" s="2" t="n">
@@ -80433,7 +80437,9 @@
       <c r="Q1428" t="n">
         <v>0</v>
       </c>
-      <c r="R1428" t="inlineStr"/>
+      <c r="R1428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1429">
       <c r="A1429" s="2" t="n">
@@ -80487,7 +80493,279 @@
       <c r="Q1429" t="n">
         <v>0</v>
       </c>
-      <c r="R1429" t="inlineStr"/>
+      <c r="R1429" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1430" t="n">
+        <v>1939</v>
+      </c>
+      <c r="C1430" t="n">
+        <v>1955.349975585938</v>
+      </c>
+      <c r="D1430" t="n">
+        <v>1843.550048828125</v>
+      </c>
+      <c r="E1430" t="n">
+        <v>1853.699951171875</v>
+      </c>
+      <c r="F1430" t="n">
+        <v>1853.699951171875</v>
+      </c>
+      <c r="G1430" t="n">
+        <v>196588</v>
+      </c>
+      <c r="H1430" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1430" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1430" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1430" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1430" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1430" t="inlineStr"/>
+    </row>
+    <row r="1431">
+      <c r="A1431" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1431" t="n">
+        <v>1862</v>
+      </c>
+      <c r="C1431" t="n">
+        <v>1914.5</v>
+      </c>
+      <c r="D1431" t="n">
+        <v>1853.75</v>
+      </c>
+      <c r="E1431" t="n">
+        <v>1879.949951171875</v>
+      </c>
+      <c r="F1431" t="n">
+        <v>1879.949951171875</v>
+      </c>
+      <c r="G1431" t="n">
+        <v>134972</v>
+      </c>
+      <c r="H1431" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1431" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1431" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1431" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1431" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1431" t="inlineStr"/>
+    </row>
+    <row r="1432">
+      <c r="A1432" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1432" t="n">
+        <v>1887.949951171875</v>
+      </c>
+      <c r="C1432" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D1432" t="n">
+        <v>1831.25</v>
+      </c>
+      <c r="E1432" t="n">
+        <v>1840.75</v>
+      </c>
+      <c r="F1432" t="n">
+        <v>1840.75</v>
+      </c>
+      <c r="G1432" t="n">
+        <v>280596</v>
+      </c>
+      <c r="H1432" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1432" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1432" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1432" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1432" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1432" t="inlineStr"/>
+    </row>
+    <row r="1433">
+      <c r="A1433" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1433" t="n">
+        <v>1840.75</v>
+      </c>
+      <c r="C1433" t="n">
+        <v>1864.949951171875</v>
+      </c>
+      <c r="D1433" t="n">
+        <v>1835.050048828125</v>
+      </c>
+      <c r="E1433" t="n">
+        <v>1848.349975585938</v>
+      </c>
+      <c r="F1433" t="n">
+        <v>1848.349975585938</v>
+      </c>
+      <c r="G1433" t="n">
+        <v>145167</v>
+      </c>
+      <c r="H1433" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1433" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1433" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1433" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1433" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1433" t="inlineStr"/>
+    </row>
+    <row r="1434">
+      <c r="A1434" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1434" t="n">
+        <v>1849</v>
+      </c>
+      <c r="C1434" t="n">
+        <v>1879.050048828125</v>
+      </c>
+      <c r="D1434" t="n">
+        <v>1827.25</v>
+      </c>
+      <c r="E1434" t="n">
+        <v>1872.949951171875</v>
+      </c>
+      <c r="F1434" t="n">
+        <v>1872.949951171875</v>
+      </c>
+      <c r="G1434" t="n">
+        <v>166310</v>
+      </c>
+      <c r="H1434" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1434" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1434" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1434" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1434" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1434" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1434"/>
+  <dimension ref="A1:R1435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80261,7 +80261,7 @@
         <v>39</v>
       </c>
       <c r="O1425" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1425" t="n">
         <v>0</v>
@@ -80549,7 +80549,9 @@
       <c r="Q1430" t="n">
         <v>0</v>
       </c>
-      <c r="R1430" t="inlineStr"/>
+      <c r="R1430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1431">
       <c r="A1431" s="2" t="n">
@@ -80603,7 +80605,9 @@
       <c r="Q1431" t="n">
         <v>0</v>
       </c>
-      <c r="R1431" t="inlineStr"/>
+      <c r="R1431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1432">
       <c r="A1432" s="2" t="n">
@@ -80657,7 +80661,9 @@
       <c r="Q1432" t="n">
         <v>0</v>
       </c>
-      <c r="R1432" t="inlineStr"/>
+      <c r="R1432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1433">
       <c r="A1433" s="2" t="n">
@@ -80711,7 +80717,9 @@
       <c r="Q1433" t="n">
         <v>0</v>
       </c>
-      <c r="R1433" t="inlineStr"/>
+      <c r="R1433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1434">
       <c r="A1434" s="2" t="n">
@@ -80765,7 +80773,63 @@
       <c r="Q1434" t="n">
         <v>0</v>
       </c>
-      <c r="R1434" t="inlineStr"/>
+      <c r="R1434" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1435" t="n">
+        <v>1881</v>
+      </c>
+      <c r="C1435" t="n">
+        <v>1918.400024414062</v>
+      </c>
+      <c r="D1435" t="n">
+        <v>1869.400024414062</v>
+      </c>
+      <c r="E1435" t="n">
+        <v>1889.300048828125</v>
+      </c>
+      <c r="F1435" t="n">
+        <v>1889.300048828125</v>
+      </c>
+      <c r="G1435" t="n">
+        <v>188989</v>
+      </c>
+      <c r="H1435" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1435" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1435" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1435" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1435" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1435" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1435"/>
+  <dimension ref="A1:R1444"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80829,7 +80829,495 @@
       <c r="Q1435" t="n">
         <v>0</v>
       </c>
-      <c r="R1435" t="inlineStr"/>
+      <c r="R1435" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436" s="2" t="n">
+        <v>45580</v>
+      </c>
+      <c r="B1436" t="n">
+        <v>1898</v>
+      </c>
+      <c r="C1436" t="n">
+        <v>1898</v>
+      </c>
+      <c r="D1436" t="n">
+        <v>1853.699951171875</v>
+      </c>
+      <c r="E1436" t="n">
+        <v>1885.949951171875</v>
+      </c>
+      <c r="F1436" t="n">
+        <v>1881.788940429688</v>
+      </c>
+      <c r="G1436" t="n">
+        <v>104971</v>
+      </c>
+      <c r="H1436" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1436" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1436" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1436" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1436" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1436" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1436" t="inlineStr"/>
+    </row>
+    <row r="1437">
+      <c r="A1437" s="2" t="n">
+        <v>45581</v>
+      </c>
+      <c r="B1437" t="n">
+        <v>1879.900024414062</v>
+      </c>
+      <c r="C1437" t="n">
+        <v>1892.449951171875</v>
+      </c>
+      <c r="D1437" t="n">
+        <v>1848.449951171875</v>
+      </c>
+      <c r="E1437" t="n">
+        <v>1867.25</v>
+      </c>
+      <c r="F1437" t="n">
+        <v>1863.130249023438</v>
+      </c>
+      <c r="G1437" t="n">
+        <v>88911</v>
+      </c>
+      <c r="H1437" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1437" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1437" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1437" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1437" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1437" t="inlineStr"/>
+    </row>
+    <row r="1438">
+      <c r="A1438" s="2" t="n">
+        <v>45582</v>
+      </c>
+      <c r="B1438" t="n">
+        <v>1867.25</v>
+      </c>
+      <c r="C1438" t="n">
+        <v>1869</v>
+      </c>
+      <c r="D1438" t="n">
+        <v>1822.849975585938</v>
+      </c>
+      <c r="E1438" t="n">
+        <v>1835</v>
+      </c>
+      <c r="F1438" t="n">
+        <v>1830.951416015625</v>
+      </c>
+      <c r="G1438" t="n">
+        <v>133432</v>
+      </c>
+      <c r="H1438" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1438" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1438" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1438" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1438" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1438" t="inlineStr"/>
+    </row>
+    <row r="1439">
+      <c r="A1439" s="2" t="n">
+        <v>45583</v>
+      </c>
+      <c r="B1439" t="n">
+        <v>1838.75</v>
+      </c>
+      <c r="C1439" t="n">
+        <v>1859.800048828125</v>
+      </c>
+      <c r="D1439" t="n">
+        <v>1815</v>
+      </c>
+      <c r="E1439" t="n">
+        <v>1852.150024414062</v>
+      </c>
+      <c r="F1439" t="n">
+        <v>1848.063598632812</v>
+      </c>
+      <c r="G1439" t="n">
+        <v>101253</v>
+      </c>
+      <c r="H1439" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1439" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1439" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1439" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1439" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1439" t="inlineStr"/>
+    </row>
+    <row r="1440">
+      <c r="A1440" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1440" t="n">
+        <v>1782.099975585938</v>
+      </c>
+      <c r="C1440" t="n">
+        <v>1856</v>
+      </c>
+      <c r="D1440" t="n">
+        <v>1760.800048828125</v>
+      </c>
+      <c r="E1440" t="n">
+        <v>1830.800048828125</v>
+      </c>
+      <c r="F1440" t="n">
+        <v>1826.7607421875</v>
+      </c>
+      <c r="G1440" t="n">
+        <v>1093603</v>
+      </c>
+      <c r="H1440" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1440" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1440" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1440" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1440" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1440" t="inlineStr"/>
+    </row>
+    <row r="1441">
+      <c r="A1441" s="2" t="n">
+        <v>45587</v>
+      </c>
+      <c r="B1441" t="n">
+        <v>1815.199951171875</v>
+      </c>
+      <c r="C1441" t="n">
+        <v>1837.349975585938</v>
+      </c>
+      <c r="D1441" t="n">
+        <v>1792.349975585938</v>
+      </c>
+      <c r="E1441" t="n">
+        <v>1804.449951171875</v>
+      </c>
+      <c r="F1441" t="n">
+        <v>1800.46875</v>
+      </c>
+      <c r="G1441" t="n">
+        <v>791489</v>
+      </c>
+      <c r="H1441" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1441" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1441" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1441" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1441" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1441" t="inlineStr"/>
+    </row>
+    <row r="1442">
+      <c r="A1442" s="2" t="n">
+        <v>45588</v>
+      </c>
+      <c r="B1442" t="n">
+        <v>1807</v>
+      </c>
+      <c r="C1442" t="n">
+        <v>1829.900024414062</v>
+      </c>
+      <c r="D1442" t="n">
+        <v>1757</v>
+      </c>
+      <c r="E1442" t="n">
+        <v>1760.849975585938</v>
+      </c>
+      <c r="F1442" t="n">
+        <v>1756.964965820312</v>
+      </c>
+      <c r="G1442" t="n">
+        <v>266266</v>
+      </c>
+      <c r="H1442" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1442" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1442" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1442" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1442" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1442" t="inlineStr"/>
+    </row>
+    <row r="1443">
+      <c r="A1443" s="2" t="n">
+        <v>45589</v>
+      </c>
+      <c r="B1443" t="n">
+        <v>1762.300048828125</v>
+      </c>
+      <c r="C1443" t="n">
+        <v>1834.400024414062</v>
+      </c>
+      <c r="D1443" t="n">
+        <v>1751</v>
+      </c>
+      <c r="E1443" t="n">
+        <v>1812.949951171875</v>
+      </c>
+      <c r="F1443" t="n">
+        <v>1808.949951171875</v>
+      </c>
+      <c r="G1443" t="n">
+        <v>288260</v>
+      </c>
+      <c r="H1443" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1443" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1443" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1443" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1443" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1443" t="inlineStr"/>
+    </row>
+    <row r="1444">
+      <c r="A1444" s="2" t="n">
+        <v>45590</v>
+      </c>
+      <c r="B1444" t="n">
+        <v>1790</v>
+      </c>
+      <c r="C1444" t="n">
+        <v>1839</v>
+      </c>
+      <c r="D1444" t="n">
+        <v>1762.050048828125</v>
+      </c>
+      <c r="E1444" t="n">
+        <v>1771.449951171875</v>
+      </c>
+      <c r="F1444" t="n">
+        <v>1771.449951171875</v>
+      </c>
+      <c r="G1444" t="n">
+        <v>181265</v>
+      </c>
+      <c r="H1444" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1444" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1444" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1444" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1444" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1444" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1444"/>
+  <dimension ref="A1:R1448"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -80885,7 +80885,9 @@
       <c r="Q1436" t="n">
         <v>0</v>
       </c>
-      <c r="R1436" t="inlineStr"/>
+      <c r="R1436" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1437">
       <c r="A1437" s="2" t="n">
@@ -80939,7 +80941,9 @@
       <c r="Q1437" t="n">
         <v>0</v>
       </c>
-      <c r="R1437" t="inlineStr"/>
+      <c r="R1437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1438">
       <c r="A1438" s="2" t="n">
@@ -80993,7 +80997,9 @@
       <c r="Q1438" t="n">
         <v>0</v>
       </c>
-      <c r="R1438" t="inlineStr"/>
+      <c r="R1438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1439">
       <c r="A1439" s="2" t="n">
@@ -81047,7 +81053,9 @@
       <c r="Q1439" t="n">
         <v>0</v>
       </c>
-      <c r="R1439" t="inlineStr"/>
+      <c r="R1439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1440">
       <c r="A1440" s="2" t="n">
@@ -81101,7 +81109,9 @@
       <c r="Q1440" t="n">
         <v>0</v>
       </c>
-      <c r="R1440" t="inlineStr"/>
+      <c r="R1440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1441">
       <c r="A1441" s="2" t="n">
@@ -81155,7 +81165,9 @@
       <c r="Q1441" t="n">
         <v>0</v>
       </c>
-      <c r="R1441" t="inlineStr"/>
+      <c r="R1441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1442">
       <c r="A1442" s="2" t="n">
@@ -81209,7 +81221,9 @@
       <c r="Q1442" t="n">
         <v>0</v>
       </c>
-      <c r="R1442" t="inlineStr"/>
+      <c r="R1442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1443">
       <c r="A1443" s="2" t="n">
@@ -81263,7 +81277,9 @@
       <c r="Q1443" t="n">
         <v>0</v>
       </c>
-      <c r="R1443" t="inlineStr"/>
+      <c r="R1443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1444">
       <c r="A1444" s="2" t="n">
@@ -81317,7 +81333,225 @@
       <c r="Q1444" t="n">
         <v>0</v>
       </c>
-      <c r="R1444" t="inlineStr"/>
+      <c r="R1444" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1445" t="n">
+        <v>1765.900024414062</v>
+      </c>
+      <c r="C1445" t="n">
+        <v>1817.550048828125</v>
+      </c>
+      <c r="D1445" t="n">
+        <v>1765.900024414062</v>
+      </c>
+      <c r="E1445" t="n">
+        <v>1796.300048828125</v>
+      </c>
+      <c r="F1445" t="n">
+        <v>1796.300048828125</v>
+      </c>
+      <c r="G1445" t="n">
+        <v>121298</v>
+      </c>
+      <c r="H1445" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1445" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1445" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1445" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1445" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1445" t="inlineStr"/>
+    </row>
+    <row r="1446">
+      <c r="A1446" s="2" t="n">
+        <v>45594</v>
+      </c>
+      <c r="B1446" t="n">
+        <v>1797.949951171875</v>
+      </c>
+      <c r="C1446" t="n">
+        <v>1804.5</v>
+      </c>
+      <c r="D1446" t="n">
+        <v>1772.050048828125</v>
+      </c>
+      <c r="E1446" t="n">
+        <v>1796.800048828125</v>
+      </c>
+      <c r="F1446" t="n">
+        <v>1796.800048828125</v>
+      </c>
+      <c r="G1446" t="n">
+        <v>144804</v>
+      </c>
+      <c r="H1446" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1446" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1446" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1446" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1446" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1446" t="inlineStr"/>
+    </row>
+    <row r="1447">
+      <c r="A1447" s="2" t="n">
+        <v>45595</v>
+      </c>
+      <c r="B1447" t="n">
+        <v>1793.25</v>
+      </c>
+      <c r="C1447" t="n">
+        <v>1854.550048828125</v>
+      </c>
+      <c r="D1447" t="n">
+        <v>1787</v>
+      </c>
+      <c r="E1447" t="n">
+        <v>1840.25</v>
+      </c>
+      <c r="F1447" t="n">
+        <v>1840.25</v>
+      </c>
+      <c r="G1447" t="n">
+        <v>257717</v>
+      </c>
+      <c r="H1447" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1447" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1447" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1447" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1447" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1447" t="inlineStr"/>
+    </row>
+    <row r="1448">
+      <c r="A1448" s="2" t="n">
+        <v>45596</v>
+      </c>
+      <c r="B1448" t="n">
+        <v>1836.849975585938</v>
+      </c>
+      <c r="C1448" t="n">
+        <v>1863.900024414062</v>
+      </c>
+      <c r="D1448" t="n">
+        <v>1818.150024414062</v>
+      </c>
+      <c r="E1448" t="n">
+        <v>1833.199951171875</v>
+      </c>
+      <c r="F1448" t="n">
+        <v>1833.199951171875</v>
+      </c>
+      <c r="G1448" t="n">
+        <v>787165</v>
+      </c>
+      <c r="H1448" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1448" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1448" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1448" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1448" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1448" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1448"/>
+  <dimension ref="A1:R1453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81269,7 +81269,7 @@
         <v>43</v>
       </c>
       <c r="O1443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1443" t="n">
         <v>0</v>
@@ -81389,7 +81389,9 @@
       <c r="Q1445" t="n">
         <v>0</v>
       </c>
-      <c r="R1445" t="inlineStr"/>
+      <c r="R1445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1446">
       <c r="A1446" s="2" t="n">
@@ -81443,7 +81445,9 @@
       <c r="Q1446" t="n">
         <v>0</v>
       </c>
-      <c r="R1446" t="inlineStr"/>
+      <c r="R1446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1447">
       <c r="A1447" s="2" t="n">
@@ -81497,7 +81501,9 @@
       <c r="Q1447" t="n">
         <v>0</v>
       </c>
-      <c r="R1447" t="inlineStr"/>
+      <c r="R1447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1448">
       <c r="A1448" s="2" t="n">
@@ -81551,7 +81557,279 @@
       <c r="Q1448" t="n">
         <v>0</v>
       </c>
-      <c r="R1448" t="inlineStr"/>
+      <c r="R1448" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1449" t="n">
+        <v>1854.25</v>
+      </c>
+      <c r="C1449" t="n">
+        <v>1854.25</v>
+      </c>
+      <c r="D1449" t="n">
+        <v>1833.199951171875</v>
+      </c>
+      <c r="E1449" t="n">
+        <v>1838.199951171875</v>
+      </c>
+      <c r="F1449" t="n">
+        <v>1838.199951171875</v>
+      </c>
+      <c r="G1449" t="n">
+        <v>10439</v>
+      </c>
+      <c r="H1449" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1449" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1449" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1449" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1449" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1449" t="inlineStr"/>
+    </row>
+    <row r="1450">
+      <c r="A1450" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1450" t="n">
+        <v>1838</v>
+      </c>
+      <c r="C1450" t="n">
+        <v>1840.449951171875</v>
+      </c>
+      <c r="D1450" t="n">
+        <v>1771.300048828125</v>
+      </c>
+      <c r="E1450" t="n">
+        <v>1789.75</v>
+      </c>
+      <c r="F1450" t="n">
+        <v>1789.75</v>
+      </c>
+      <c r="G1450" t="n">
+        <v>143783</v>
+      </c>
+      <c r="H1450" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1450" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1450" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1450" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1450" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1450" t="inlineStr"/>
+    </row>
+    <row r="1451">
+      <c r="A1451" s="2" t="n">
+        <v>45601</v>
+      </c>
+      <c r="B1451" t="n">
+        <v>1789.75</v>
+      </c>
+      <c r="C1451" t="n">
+        <v>1810</v>
+      </c>
+      <c r="D1451" t="n">
+        <v>1762</v>
+      </c>
+      <c r="E1451" t="n">
+        <v>1793.599975585938</v>
+      </c>
+      <c r="F1451" t="n">
+        <v>1793.599975585938</v>
+      </c>
+      <c r="G1451" t="n">
+        <v>116159</v>
+      </c>
+      <c r="H1451" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1451" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1451" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1451" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1451" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1451" t="inlineStr"/>
+    </row>
+    <row r="1452">
+      <c r="A1452" s="2" t="n">
+        <v>45602</v>
+      </c>
+      <c r="B1452" t="n">
+        <v>1799.75</v>
+      </c>
+      <c r="C1452" t="n">
+        <v>1827.75</v>
+      </c>
+      <c r="D1452" t="n">
+        <v>1766.449951171875</v>
+      </c>
+      <c r="E1452" t="n">
+        <v>1817.550048828125</v>
+      </c>
+      <c r="F1452" t="n">
+        <v>1817.550048828125</v>
+      </c>
+      <c r="G1452" t="n">
+        <v>163020</v>
+      </c>
+      <c r="H1452" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1452" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1452" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1452" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1452" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1452" t="inlineStr"/>
+    </row>
+    <row r="1453">
+      <c r="A1453" s="2" t="n">
+        <v>45603</v>
+      </c>
+      <c r="B1453" t="n">
+        <v>1818</v>
+      </c>
+      <c r="C1453" t="n">
+        <v>1823.550048828125</v>
+      </c>
+      <c r="D1453" t="n">
+        <v>1790.099975585938</v>
+      </c>
+      <c r="E1453" t="n">
+        <v>1798.25</v>
+      </c>
+      <c r="F1453" t="n">
+        <v>1798.25</v>
+      </c>
+      <c r="G1453" t="n">
+        <v>125276</v>
+      </c>
+      <c r="H1453" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1453" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1453" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1453" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1453" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1453" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1453"/>
+  <dimension ref="A1:R1458"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81613,7 +81613,9 @@
       <c r="Q1449" t="n">
         <v>0</v>
       </c>
-      <c r="R1449" t="inlineStr"/>
+      <c r="R1449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1450">
       <c r="A1450" s="2" t="n">
@@ -81667,7 +81669,9 @@
       <c r="Q1450" t="n">
         <v>0</v>
       </c>
-      <c r="R1450" t="inlineStr"/>
+      <c r="R1450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1451">
       <c r="A1451" s="2" t="n">
@@ -81721,7 +81725,9 @@
       <c r="Q1451" t="n">
         <v>0</v>
       </c>
-      <c r="R1451" t="inlineStr"/>
+      <c r="R1451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1452">
       <c r="A1452" s="2" t="n">
@@ -81775,7 +81781,9 @@
       <c r="Q1452" t="n">
         <v>0</v>
       </c>
-      <c r="R1452" t="inlineStr"/>
+      <c r="R1452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1453">
       <c r="A1453" s="2" t="n">
@@ -81829,7 +81837,279 @@
       <c r="Q1453" t="n">
         <v>0</v>
       </c>
-      <c r="R1453" t="inlineStr"/>
+      <c r="R1453" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454" s="2" t="n">
+        <v>45604</v>
+      </c>
+      <c r="B1454" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1454" t="n">
+        <v>1804.449951171875</v>
+      </c>
+      <c r="D1454" t="n">
+        <v>1759.849975585938</v>
+      </c>
+      <c r="E1454" t="n">
+        <v>1768.050048828125</v>
+      </c>
+      <c r="F1454" t="n">
+        <v>1768.050048828125</v>
+      </c>
+      <c r="G1454" t="n">
+        <v>63085</v>
+      </c>
+      <c r="H1454" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1454" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1454" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1454" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1454" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1454" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1454" t="inlineStr"/>
+    </row>
+    <row r="1455">
+      <c r="A1455" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1455" t="n">
+        <v>1762</v>
+      </c>
+      <c r="C1455" t="n">
+        <v>1782.099975585938</v>
+      </c>
+      <c r="D1455" t="n">
+        <v>1742.849975585938</v>
+      </c>
+      <c r="E1455" t="n">
+        <v>1755.349975585938</v>
+      </c>
+      <c r="F1455" t="n">
+        <v>1755.349975585938</v>
+      </c>
+      <c r="G1455" t="n">
+        <v>182117</v>
+      </c>
+      <c r="H1455" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1455" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1455" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1455" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1455" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1455" t="inlineStr"/>
+    </row>
+    <row r="1456">
+      <c r="A1456" s="2" t="n">
+        <v>45608</v>
+      </c>
+      <c r="B1456" t="n">
+        <v>1760</v>
+      </c>
+      <c r="C1456" t="n">
+        <v>1793.900024414062</v>
+      </c>
+      <c r="D1456" t="n">
+        <v>1752</v>
+      </c>
+      <c r="E1456" t="n">
+        <v>1786.699951171875</v>
+      </c>
+      <c r="F1456" t="n">
+        <v>1786.699951171875</v>
+      </c>
+      <c r="G1456" t="n">
+        <v>79048</v>
+      </c>
+      <c r="H1456" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1456" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1456" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1456" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1456" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1456" t="inlineStr"/>
+    </row>
+    <row r="1457">
+      <c r="A1457" s="2" t="n">
+        <v>45609</v>
+      </c>
+      <c r="B1457" t="n">
+        <v>1782</v>
+      </c>
+      <c r="C1457" t="n">
+        <v>1788.25</v>
+      </c>
+      <c r="D1457" t="n">
+        <v>1734.699951171875</v>
+      </c>
+      <c r="E1457" t="n">
+        <v>1737.599975585938</v>
+      </c>
+      <c r="F1457" t="n">
+        <v>1737.599975585938</v>
+      </c>
+      <c r="G1457" t="n">
+        <v>195661</v>
+      </c>
+      <c r="H1457" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1457" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1457" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1457" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1457" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1457" t="inlineStr"/>
+    </row>
+    <row r="1458">
+      <c r="A1458" s="2" t="n">
+        <v>45610</v>
+      </c>
+      <c r="B1458" t="n">
+        <v>1736.099975585938</v>
+      </c>
+      <c r="C1458" t="n">
+        <v>1746.050048828125</v>
+      </c>
+      <c r="D1458" t="n">
+        <v>1676.550048828125</v>
+      </c>
+      <c r="E1458" t="n">
+        <v>1713.800048828125</v>
+      </c>
+      <c r="F1458" t="n">
+        <v>1713.800048828125</v>
+      </c>
+      <c r="G1458" t="n">
+        <v>491072</v>
+      </c>
+      <c r="H1458" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1458" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1458" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1458" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1458" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1458" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1458"/>
+  <dimension ref="A1:R1462"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -81893,7 +81893,9 @@
       <c r="Q1454" t="n">
         <v>1</v>
       </c>
-      <c r="R1454" t="inlineStr"/>
+      <c r="R1454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1455">
       <c r="A1455" s="2" t="n">
@@ -81947,7 +81949,9 @@
       <c r="Q1455" t="n">
         <v>0</v>
       </c>
-      <c r="R1455" t="inlineStr"/>
+      <c r="R1455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1456">
       <c r="A1456" s="2" t="n">
@@ -82001,7 +82005,9 @@
       <c r="Q1456" t="n">
         <v>0</v>
       </c>
-      <c r="R1456" t="inlineStr"/>
+      <c r="R1456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1457">
       <c r="A1457" s="2" t="n">
@@ -82055,7 +82061,9 @@
       <c r="Q1457" t="n">
         <v>0</v>
       </c>
-      <c r="R1457" t="inlineStr"/>
+      <c r="R1457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1458">
       <c r="A1458" s="2" t="n">
@@ -82109,7 +82117,225 @@
       <c r="Q1458" t="n">
         <v>0</v>
       </c>
-      <c r="R1458" t="inlineStr"/>
+      <c r="R1458" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1459" t="n">
+        <v>1709.949951171875</v>
+      </c>
+      <c r="C1459" t="n">
+        <v>1730</v>
+      </c>
+      <c r="D1459" t="n">
+        <v>1680.199951171875</v>
+      </c>
+      <c r="E1459" t="n">
+        <v>1686.349975585938</v>
+      </c>
+      <c r="F1459" t="n">
+        <v>1686.349975585938</v>
+      </c>
+      <c r="G1459" t="n">
+        <v>208120</v>
+      </c>
+      <c r="H1459" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1459" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1459" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1459" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1459" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1459" t="inlineStr"/>
+    </row>
+    <row r="1460">
+      <c r="A1460" s="2" t="n">
+        <v>45615</v>
+      </c>
+      <c r="B1460" t="n">
+        <v>1700.650024414062</v>
+      </c>
+      <c r="C1460" t="n">
+        <v>1770</v>
+      </c>
+      <c r="D1460" t="n">
+        <v>1698.550048828125</v>
+      </c>
+      <c r="E1460" t="n">
+        <v>1745.25</v>
+      </c>
+      <c r="F1460" t="n">
+        <v>1745.25</v>
+      </c>
+      <c r="G1460" t="n">
+        <v>400400</v>
+      </c>
+      <c r="H1460" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1460" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1460" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1460" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1460" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1460" t="inlineStr"/>
+    </row>
+    <row r="1461">
+      <c r="A1461" s="2" t="n">
+        <v>45617</v>
+      </c>
+      <c r="B1461" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C1461" t="n">
+        <v>1782.75</v>
+      </c>
+      <c r="D1461" t="n">
+        <v>1705.050048828125</v>
+      </c>
+      <c r="E1461" t="n">
+        <v>1771.599975585938</v>
+      </c>
+      <c r="F1461" t="n">
+        <v>1771.599975585938</v>
+      </c>
+      <c r="G1461" t="n">
+        <v>156031</v>
+      </c>
+      <c r="H1461" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1461" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1461" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1461" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1461" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1461" t="inlineStr"/>
+    </row>
+    <row r="1462">
+      <c r="A1462" s="2" t="n">
+        <v>45618</v>
+      </c>
+      <c r="B1462" t="n">
+        <v>1778</v>
+      </c>
+      <c r="C1462" t="n">
+        <v>1823</v>
+      </c>
+      <c r="D1462" t="n">
+        <v>1764.550048828125</v>
+      </c>
+      <c r="E1462" t="n">
+        <v>1808.25</v>
+      </c>
+      <c r="F1462" t="n">
+        <v>1808.25</v>
+      </c>
+      <c r="G1462" t="n">
+        <v>225572</v>
+      </c>
+      <c r="H1462" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1462" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1462" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1462" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1462" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1462" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1462"/>
+  <dimension ref="A1:R1467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82173,7 +82173,9 @@
       <c r="Q1459" t="n">
         <v>0</v>
       </c>
-      <c r="R1459" t="inlineStr"/>
+      <c r="R1459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1460">
       <c r="A1460" s="2" t="n">
@@ -82227,7 +82229,9 @@
       <c r="Q1460" t="n">
         <v>0</v>
       </c>
-      <c r="R1460" t="inlineStr"/>
+      <c r="R1460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1461">
       <c r="A1461" s="2" t="n">
@@ -82281,7 +82285,9 @@
       <c r="Q1461" t="n">
         <v>0</v>
       </c>
-      <c r="R1461" t="inlineStr"/>
+      <c r="R1461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1462">
       <c r="A1462" s="2" t="n">
@@ -82335,7 +82341,279 @@
       <c r="Q1462" t="n">
         <v>0</v>
       </c>
-      <c r="R1462" t="inlineStr"/>
+      <c r="R1462" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1463" t="n">
+        <v>1813</v>
+      </c>
+      <c r="C1463" t="n">
+        <v>1865</v>
+      </c>
+      <c r="D1463" t="n">
+        <v>1812.599975585938</v>
+      </c>
+      <c r="E1463" t="n">
+        <v>1826.800048828125</v>
+      </c>
+      <c r="F1463" t="n">
+        <v>1826.800048828125</v>
+      </c>
+      <c r="G1463" t="n">
+        <v>412507</v>
+      </c>
+      <c r="H1463" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1463" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1463" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1463" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1463" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1463" t="inlineStr"/>
+    </row>
+    <row r="1464">
+      <c r="A1464" s="2" t="n">
+        <v>45622</v>
+      </c>
+      <c r="B1464" t="n">
+        <v>1826.800048828125</v>
+      </c>
+      <c r="C1464" t="n">
+        <v>1850</v>
+      </c>
+      <c r="D1464" t="n">
+        <v>1804.349975585938</v>
+      </c>
+      <c r="E1464" t="n">
+        <v>1826.199951171875</v>
+      </c>
+      <c r="F1464" t="n">
+        <v>1826.199951171875</v>
+      </c>
+      <c r="G1464" t="n">
+        <v>73786</v>
+      </c>
+      <c r="H1464" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1464" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1464" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1464" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1464" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1464" t="inlineStr"/>
+    </row>
+    <row r="1465">
+      <c r="A1465" s="2" t="n">
+        <v>45623</v>
+      </c>
+      <c r="B1465" t="n">
+        <v>1822.849975585938</v>
+      </c>
+      <c r="C1465" t="n">
+        <v>1847.449951171875</v>
+      </c>
+      <c r="D1465" t="n">
+        <v>1802.300048828125</v>
+      </c>
+      <c r="E1465" t="n">
+        <v>1836.449951171875</v>
+      </c>
+      <c r="F1465" t="n">
+        <v>1836.449951171875</v>
+      </c>
+      <c r="G1465" t="n">
+        <v>207146</v>
+      </c>
+      <c r="H1465" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1465" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1465" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1465" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1465" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1465" t="inlineStr"/>
+    </row>
+    <row r="1466">
+      <c r="A1466" s="2" t="n">
+        <v>45624</v>
+      </c>
+      <c r="B1466" t="n">
+        <v>1836.5</v>
+      </c>
+      <c r="C1466" t="n">
+        <v>1845.150024414062</v>
+      </c>
+      <c r="D1466" t="n">
+        <v>1809</v>
+      </c>
+      <c r="E1466" t="n">
+        <v>1819.300048828125</v>
+      </c>
+      <c r="F1466" t="n">
+        <v>1819.300048828125</v>
+      </c>
+      <c r="G1466" t="n">
+        <v>184962</v>
+      </c>
+      <c r="H1466" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1466" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1466" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1466" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1466" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1466" t="inlineStr"/>
+    </row>
+    <row r="1467">
+      <c r="A1467" s="2" t="n">
+        <v>45625</v>
+      </c>
+      <c r="B1467" t="n">
+        <v>1819.300048828125</v>
+      </c>
+      <c r="C1467" t="n">
+        <v>1836.449951171875</v>
+      </c>
+      <c r="D1467" t="n">
+        <v>1812.300048828125</v>
+      </c>
+      <c r="E1467" t="n">
+        <v>1820.349975585938</v>
+      </c>
+      <c r="F1467" t="n">
+        <v>1820.349975585938</v>
+      </c>
+      <c r="G1467" t="n">
+        <v>420858</v>
+      </c>
+      <c r="H1467" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1467" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1467" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1467" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1467" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1467" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1467"/>
+  <dimension ref="A1:R1468"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82109,7 +82109,7 @@
         <v>46</v>
       </c>
       <c r="O1458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1458" t="n">
         <v>0</v>
@@ -82397,7 +82397,9 @@
       <c r="Q1463" t="n">
         <v>0</v>
       </c>
-      <c r="R1463" t="inlineStr"/>
+      <c r="R1463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1464">
       <c r="A1464" s="2" t="n">
@@ -82451,7 +82453,9 @@
       <c r="Q1464" t="n">
         <v>0</v>
       </c>
-      <c r="R1464" t="inlineStr"/>
+      <c r="R1464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1465">
       <c r="A1465" s="2" t="n">
@@ -82505,7 +82509,9 @@
       <c r="Q1465" t="n">
         <v>0</v>
       </c>
-      <c r="R1465" t="inlineStr"/>
+      <c r="R1465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1466">
       <c r="A1466" s="2" t="n">
@@ -82559,7 +82565,9 @@
       <c r="Q1466" t="n">
         <v>0</v>
       </c>
-      <c r="R1466" t="inlineStr"/>
+      <c r="R1466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1467">
       <c r="A1467" s="2" t="n">
@@ -82613,7 +82621,63 @@
       <c r="Q1467" t="n">
         <v>0</v>
       </c>
-      <c r="R1467" t="inlineStr"/>
+      <c r="R1467" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1468" t="n">
+        <v>1850</v>
+      </c>
+      <c r="C1468" t="n">
+        <v>1894.050048828125</v>
+      </c>
+      <c r="D1468" t="n">
+        <v>1835.099975585938</v>
+      </c>
+      <c r="E1468" t="n">
+        <v>1879.75</v>
+      </c>
+      <c r="F1468" t="n">
+        <v>1879.75</v>
+      </c>
+      <c r="G1468" t="n">
+        <v>1149355</v>
+      </c>
+      <c r="H1468" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1468" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1468" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1468" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1468" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1468" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1468"/>
+  <dimension ref="A1:R1482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82677,7 +82677,737 @@
       <c r="Q1468" t="n">
         <v>0</v>
       </c>
-      <c r="R1468" t="inlineStr"/>
+      <c r="R1468" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469" s="2" t="n">
+        <v>45629</v>
+      </c>
+      <c r="B1469" t="n">
+        <v>1879.75</v>
+      </c>
+      <c r="C1469" t="n">
+        <v>1946.650024414062</v>
+      </c>
+      <c r="D1469" t="n">
+        <v>1879.75</v>
+      </c>
+      <c r="E1469" t="n">
+        <v>1930.800048828125</v>
+      </c>
+      <c r="F1469" t="inlineStr"/>
+      <c r="G1469" t="n">
+        <v>447294</v>
+      </c>
+      <c r="H1469" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1469" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1469" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1469" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1469" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1469" t="inlineStr"/>
+    </row>
+    <row r="1470">
+      <c r="A1470" s="2" t="n">
+        <v>45630</v>
+      </c>
+      <c r="B1470" t="n">
+        <v>1929</v>
+      </c>
+      <c r="C1470" t="n">
+        <v>1945.349975585938</v>
+      </c>
+      <c r="D1470" t="n">
+        <v>1903.849975585938</v>
+      </c>
+      <c r="E1470" t="n">
+        <v>1936.699951171875</v>
+      </c>
+      <c r="F1470" t="inlineStr"/>
+      <c r="G1470" t="n">
+        <v>410592</v>
+      </c>
+      <c r="H1470" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1470" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1470" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1470" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1470" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1470" t="inlineStr"/>
+    </row>
+    <row r="1471">
+      <c r="A1471" s="2" t="n">
+        <v>45631</v>
+      </c>
+      <c r="B1471" t="n">
+        <v>1938</v>
+      </c>
+      <c r="C1471" t="n">
+        <v>1953.599975585938</v>
+      </c>
+      <c r="D1471" t="n">
+        <v>1889.449951171875</v>
+      </c>
+      <c r="E1471" t="n">
+        <v>1913.800048828125</v>
+      </c>
+      <c r="F1471" t="inlineStr"/>
+      <c r="G1471" t="n">
+        <v>307371</v>
+      </c>
+      <c r="H1471" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1471" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1471" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1471" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1471" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1471" t="inlineStr"/>
+    </row>
+    <row r="1472">
+      <c r="A1472" s="2" t="n">
+        <v>45632</v>
+      </c>
+      <c r="B1472" t="n">
+        <v>1916.849975585938</v>
+      </c>
+      <c r="C1472" t="n">
+        <v>1928.550048828125</v>
+      </c>
+      <c r="D1472" t="n">
+        <v>1903.550048828125</v>
+      </c>
+      <c r="E1472" t="n">
+        <v>1926.050048828125</v>
+      </c>
+      <c r="F1472" t="inlineStr"/>
+      <c r="G1472" t="n">
+        <v>327447</v>
+      </c>
+      <c r="H1472" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1472" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1472" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1472" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1472" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1472" t="inlineStr"/>
+    </row>
+    <row r="1473">
+      <c r="A1473" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1473" t="n">
+        <v>1931.949951171875</v>
+      </c>
+      <c r="C1473" t="n">
+        <v>1931.949951171875</v>
+      </c>
+      <c r="D1473" t="n">
+        <v>1890</v>
+      </c>
+      <c r="E1473" t="n">
+        <v>1897.75</v>
+      </c>
+      <c r="F1473" t="inlineStr"/>
+      <c r="G1473" t="n">
+        <v>238734</v>
+      </c>
+      <c r="H1473" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1473" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1473" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1473" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1473" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1473" t="inlineStr"/>
+    </row>
+    <row r="1474">
+      <c r="A1474" s="2" t="n">
+        <v>45636</v>
+      </c>
+      <c r="B1474" t="n">
+        <v>1898.050048828125</v>
+      </c>
+      <c r="C1474" t="n">
+        <v>1908.349975585938</v>
+      </c>
+      <c r="D1474" t="n">
+        <v>1876</v>
+      </c>
+      <c r="E1474" t="n">
+        <v>1898.699951171875</v>
+      </c>
+      <c r="F1474" t="inlineStr"/>
+      <c r="G1474" t="n">
+        <v>333088</v>
+      </c>
+      <c r="H1474" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1474" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1474" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1474" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1474" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1474" t="inlineStr"/>
+    </row>
+    <row r="1475">
+      <c r="A1475" s="2" t="n">
+        <v>45637</v>
+      </c>
+      <c r="B1475" t="n">
+        <v>1909.949951171875</v>
+      </c>
+      <c r="C1475" t="n">
+        <v>1972.900024414062</v>
+      </c>
+      <c r="D1475" t="n">
+        <v>1909</v>
+      </c>
+      <c r="E1475" t="n">
+        <v>1966.599975585938</v>
+      </c>
+      <c r="F1475" t="inlineStr"/>
+      <c r="G1475" t="n">
+        <v>1009273</v>
+      </c>
+      <c r="H1475" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1475" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1475" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1475" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1475" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1475" t="inlineStr"/>
+    </row>
+    <row r="1476">
+      <c r="A1476" s="2" t="n">
+        <v>45638</v>
+      </c>
+      <c r="B1476" t="n">
+        <v>1973.800048828125</v>
+      </c>
+      <c r="C1476" t="n">
+        <v>1974.599975585938</v>
+      </c>
+      <c r="D1476" t="n">
+        <v>1924.949951171875</v>
+      </c>
+      <c r="E1476" t="n">
+        <v>1935.25</v>
+      </c>
+      <c r="F1476" t="inlineStr"/>
+      <c r="G1476" t="n">
+        <v>363340</v>
+      </c>
+      <c r="H1476" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1476" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1476" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1476" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1476" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1476" t="inlineStr"/>
+    </row>
+    <row r="1477">
+      <c r="A1477" s="2" t="n">
+        <v>45639</v>
+      </c>
+      <c r="B1477" t="n">
+        <v>1930.25</v>
+      </c>
+      <c r="C1477" t="n">
+        <v>1935.25</v>
+      </c>
+      <c r="D1477" t="n">
+        <v>1848.150024414062</v>
+      </c>
+      <c r="E1477" t="n">
+        <v>1921.599975585938</v>
+      </c>
+      <c r="F1477" t="inlineStr"/>
+      <c r="G1477" t="n">
+        <v>389729</v>
+      </c>
+      <c r="H1477" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1477" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1477" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1477" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1477" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1477" t="inlineStr"/>
+    </row>
+    <row r="1478">
+      <c r="A1478" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1478" t="n">
+        <v>1925.650024414062</v>
+      </c>
+      <c r="C1478" t="n">
+        <v>1955.900024414062</v>
+      </c>
+      <c r="D1478" t="n">
+        <v>1920.050048828125</v>
+      </c>
+      <c r="E1478" t="n">
+        <v>1945.949951171875</v>
+      </c>
+      <c r="F1478" t="inlineStr"/>
+      <c r="G1478" t="n">
+        <v>140115</v>
+      </c>
+      <c r="H1478" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1478" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1478" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1478" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1478" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1478" t="inlineStr"/>
+    </row>
+    <row r="1479">
+      <c r="A1479" s="2" t="n">
+        <v>45643</v>
+      </c>
+      <c r="B1479" t="n">
+        <v>1955</v>
+      </c>
+      <c r="C1479" t="n">
+        <v>1958.949951171875</v>
+      </c>
+      <c r="D1479" t="n">
+        <v>1925.349975585938</v>
+      </c>
+      <c r="E1479" t="n">
+        <v>1934.099975585938</v>
+      </c>
+      <c r="F1479" t="inlineStr"/>
+      <c r="G1479" t="n">
+        <v>154906</v>
+      </c>
+      <c r="H1479" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1479" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1479" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1479" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1479" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1479" t="inlineStr"/>
+    </row>
+    <row r="1480">
+      <c r="A1480" s="2" t="n">
+        <v>45644</v>
+      </c>
+      <c r="B1480" t="n">
+        <v>1929.5</v>
+      </c>
+      <c r="C1480" t="n">
+        <v>1951.5</v>
+      </c>
+      <c r="D1480" t="n">
+        <v>1874</v>
+      </c>
+      <c r="E1480" t="n">
+        <v>1879.300048828125</v>
+      </c>
+      <c r="F1480" t="inlineStr"/>
+      <c r="G1480" t="n">
+        <v>152928</v>
+      </c>
+      <c r="H1480" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1480" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1480" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1480" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1480" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1480" t="inlineStr"/>
+    </row>
+    <row r="1481">
+      <c r="A1481" s="2" t="n">
+        <v>45645</v>
+      </c>
+      <c r="B1481" t="n">
+        <v>1839.5</v>
+      </c>
+      <c r="C1481" t="n">
+        <v>1868.75</v>
+      </c>
+      <c r="D1481" t="n">
+        <v>1839.5</v>
+      </c>
+      <c r="E1481" t="n">
+        <v>1851.900024414062</v>
+      </c>
+      <c r="F1481" t="inlineStr"/>
+      <c r="G1481" t="n">
+        <v>79510</v>
+      </c>
+      <c r="H1481" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1481" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1481" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1481" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1481" t="inlineStr"/>
+    </row>
+    <row r="1482">
+      <c r="A1482" s="2" t="n">
+        <v>45646</v>
+      </c>
+      <c r="B1482" t="n">
+        <v>1851.900024414062</v>
+      </c>
+      <c r="C1482" t="n">
+        <v>1862.900024414062</v>
+      </c>
+      <c r="D1482" t="n">
+        <v>1795</v>
+      </c>
+      <c r="E1482" t="n">
+        <v>1801.900024414062</v>
+      </c>
+      <c r="F1482" t="inlineStr"/>
+      <c r="G1482" t="n">
+        <v>217087</v>
+      </c>
+      <c r="H1482" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1482" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1482" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1482" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1482" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1482"/>
+  <dimension ref="A1:R1486"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82731,7 +82731,9 @@
       <c r="Q1469" t="n">
         <v>0</v>
       </c>
-      <c r="R1469" t="inlineStr"/>
+      <c r="R1469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1470">
       <c r="A1470" s="2" t="n">
@@ -82783,7 +82785,9 @@
       <c r="Q1470" t="n">
         <v>0</v>
       </c>
-      <c r="R1470" t="inlineStr"/>
+      <c r="R1470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1471">
       <c r="A1471" s="2" t="n">
@@ -82835,7 +82839,9 @@
       <c r="Q1471" t="n">
         <v>0</v>
       </c>
-      <c r="R1471" t="inlineStr"/>
+      <c r="R1471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1472">
       <c r="A1472" s="2" t="n">
@@ -82887,7 +82893,9 @@
       <c r="Q1472" t="n">
         <v>0</v>
       </c>
-      <c r="R1472" t="inlineStr"/>
+      <c r="R1472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1473">
       <c r="A1473" s="2" t="n">
@@ -82939,7 +82947,9 @@
       <c r="Q1473" t="n">
         <v>0</v>
       </c>
-      <c r="R1473" t="inlineStr"/>
+      <c r="R1473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1474">
       <c r="A1474" s="2" t="n">
@@ -82991,7 +83001,9 @@
       <c r="Q1474" t="n">
         <v>0</v>
       </c>
-      <c r="R1474" t="inlineStr"/>
+      <c r="R1474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1475">
       <c r="A1475" s="2" t="n">
@@ -83043,7 +83055,9 @@
       <c r="Q1475" t="n">
         <v>0</v>
       </c>
-      <c r="R1475" t="inlineStr"/>
+      <c r="R1475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1476">
       <c r="A1476" s="2" t="n">
@@ -83087,7 +83101,7 @@
         <v>50</v>
       </c>
       <c r="O1476" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1476" t="n">
         <v>0</v>
@@ -83095,7 +83109,9 @@
       <c r="Q1476" t="n">
         <v>0</v>
       </c>
-      <c r="R1476" t="inlineStr"/>
+      <c r="R1476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1477">
       <c r="A1477" s="2" t="n">
@@ -83147,7 +83163,9 @@
       <c r="Q1477" t="n">
         <v>0</v>
       </c>
-      <c r="R1477" t="inlineStr"/>
+      <c r="R1477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1478">
       <c r="A1478" s="2" t="n">
@@ -83199,7 +83217,9 @@
       <c r="Q1478" t="n">
         <v>0</v>
       </c>
-      <c r="R1478" t="inlineStr"/>
+      <c r="R1478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1479">
       <c r="A1479" s="2" t="n">
@@ -83251,7 +83271,9 @@
       <c r="Q1479" t="n">
         <v>0</v>
       </c>
-      <c r="R1479" t="inlineStr"/>
+      <c r="R1479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1480">
       <c r="A1480" s="2" t="n">
@@ -83303,7 +83325,9 @@
       <c r="Q1480" t="n">
         <v>0</v>
       </c>
-      <c r="R1480" t="inlineStr"/>
+      <c r="R1480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1481">
       <c r="A1481" s="2" t="n">
@@ -83355,7 +83379,9 @@
       <c r="Q1481" t="n">
         <v>0</v>
       </c>
-      <c r="R1481" t="inlineStr"/>
+      <c r="R1481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1482">
       <c r="A1482" s="2" t="n">
@@ -83407,7 +83433,217 @@
       <c r="Q1482" t="n">
         <v>0</v>
       </c>
-      <c r="R1482" t="inlineStr"/>
+      <c r="R1482" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1483" t="n">
+        <v>1785.5</v>
+      </c>
+      <c r="C1483" t="n">
+        <v>1802.75</v>
+      </c>
+      <c r="D1483" t="n">
+        <v>1734.699951171875</v>
+      </c>
+      <c r="E1483" t="n">
+        <v>1759.949951171875</v>
+      </c>
+      <c r="F1483" t="inlineStr"/>
+      <c r="G1483" t="n">
+        <v>516633</v>
+      </c>
+      <c r="H1483" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1483" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1483" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1483" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1483" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1483" t="inlineStr"/>
+    </row>
+    <row r="1484">
+      <c r="A1484" s="2" t="n">
+        <v>45650</v>
+      </c>
+      <c r="B1484" t="n">
+        <v>1769.199951171875</v>
+      </c>
+      <c r="C1484" t="n">
+        <v>1774.400024414062</v>
+      </c>
+      <c r="D1484" t="n">
+        <v>1715</v>
+      </c>
+      <c r="E1484" t="n">
+        <v>1717.650024414062</v>
+      </c>
+      <c r="F1484" t="inlineStr"/>
+      <c r="G1484" t="n">
+        <v>206876</v>
+      </c>
+      <c r="H1484" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1484" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1484" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1484" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1484" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1484" t="inlineStr"/>
+    </row>
+    <row r="1485">
+      <c r="A1485" s="2" t="n">
+        <v>45652</v>
+      </c>
+      <c r="B1485" t="n">
+        <v>1719.349975585938</v>
+      </c>
+      <c r="C1485" t="n">
+        <v>1752</v>
+      </c>
+      <c r="D1485" t="n">
+        <v>1713</v>
+      </c>
+      <c r="E1485" t="n">
+        <v>1738.550048828125</v>
+      </c>
+      <c r="F1485" t="inlineStr"/>
+      <c r="G1485" t="n">
+        <v>515614</v>
+      </c>
+      <c r="H1485" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1485" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1485" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1485" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1485" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1485" t="inlineStr"/>
+    </row>
+    <row r="1486">
+      <c r="A1486" s="2" t="n">
+        <v>45653</v>
+      </c>
+      <c r="B1486" t="n">
+        <v>1740.25</v>
+      </c>
+      <c r="C1486" t="n">
+        <v>1755</v>
+      </c>
+      <c r="D1486" t="n">
+        <v>1728.150024414062</v>
+      </c>
+      <c r="E1486" t="n">
+        <v>1740.400024414062</v>
+      </c>
+      <c r="F1486" t="inlineStr"/>
+      <c r="G1486" t="n">
+        <v>134913</v>
+      </c>
+      <c r="H1486" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1486" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1486" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1486" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1486" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1486" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1486"/>
+  <dimension ref="A1:R1491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83487,7 +83487,9 @@
       <c r="Q1483" t="n">
         <v>0</v>
       </c>
-      <c r="R1483" t="inlineStr"/>
+      <c r="R1483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1484">
       <c r="A1484" s="2" t="n">
@@ -83539,7 +83541,9 @@
       <c r="Q1484" t="n">
         <v>0</v>
       </c>
-      <c r="R1484" t="inlineStr"/>
+      <c r="R1484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1485">
       <c r="A1485" s="2" t="n">
@@ -83591,7 +83595,9 @@
       <c r="Q1485" t="n">
         <v>0</v>
       </c>
-      <c r="R1485" t="inlineStr"/>
+      <c r="R1485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1486">
       <c r="A1486" s="2" t="n">
@@ -83643,7 +83649,269 @@
       <c r="Q1486" t="n">
         <v>0</v>
       </c>
-      <c r="R1486" t="inlineStr"/>
+      <c r="R1486" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1487" t="n">
+        <v>1740</v>
+      </c>
+      <c r="C1487" t="n">
+        <v>1781</v>
+      </c>
+      <c r="D1487" t="n">
+        <v>1727.550048828125</v>
+      </c>
+      <c r="E1487" t="n">
+        <v>1771.349975585938</v>
+      </c>
+      <c r="F1487" t="inlineStr"/>
+      <c r="G1487" t="n">
+        <v>428056</v>
+      </c>
+      <c r="H1487" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1487" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1487" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1487" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1487" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1487" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1487" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1487" t="inlineStr"/>
+    </row>
+    <row r="1488">
+      <c r="A1488" s="2" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B1488" t="n">
+        <v>1779</v>
+      </c>
+      <c r="C1488" t="n">
+        <v>1779</v>
+      </c>
+      <c r="D1488" t="n">
+        <v>1744.5</v>
+      </c>
+      <c r="E1488" t="n">
+        <v>1767.25</v>
+      </c>
+      <c r="F1488" t="inlineStr"/>
+      <c r="G1488" t="n">
+        <v>118887</v>
+      </c>
+      <c r="H1488" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1488" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1488" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1488" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1488" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1488" t="inlineStr"/>
+    </row>
+    <row r="1489">
+      <c r="A1489" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1489" t="n">
+        <v>1768.800048828125</v>
+      </c>
+      <c r="C1489" t="n">
+        <v>1789</v>
+      </c>
+      <c r="D1489" t="n">
+        <v>1759.300048828125</v>
+      </c>
+      <c r="E1489" t="n">
+        <v>1770.949951171875</v>
+      </c>
+      <c r="F1489" t="inlineStr"/>
+      <c r="G1489" t="n">
+        <v>100730</v>
+      </c>
+      <c r="H1489" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1489" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1489" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1489" t="inlineStr"/>
+    </row>
+    <row r="1490">
+      <c r="A1490" s="2" t="n">
+        <v>45659</v>
+      </c>
+      <c r="B1490" t="n">
+        <v>1765</v>
+      </c>
+      <c r="C1490" t="n">
+        <v>1836.199951171875</v>
+      </c>
+      <c r="D1490" t="n">
+        <v>1763.199951171875</v>
+      </c>
+      <c r="E1490" t="n">
+        <v>1816.199951171875</v>
+      </c>
+      <c r="F1490" t="inlineStr"/>
+      <c r="G1490" t="n">
+        <v>496854</v>
+      </c>
+      <c r="H1490" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1490" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1490" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1490" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1490" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1490" t="inlineStr"/>
+    </row>
+    <row r="1491">
+      <c r="A1491" s="2" t="n">
+        <v>45660</v>
+      </c>
+      <c r="B1491" t="n">
+        <v>1814</v>
+      </c>
+      <c r="C1491" t="n">
+        <v>1831</v>
+      </c>
+      <c r="D1491" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E1491" t="n">
+        <v>1807.849975585938</v>
+      </c>
+      <c r="F1491" t="inlineStr"/>
+      <c r="G1491" t="n">
+        <v>222622</v>
+      </c>
+      <c r="H1491" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1491" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1491" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1491" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1491" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1491"/>
+  <dimension ref="A1:R1495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83587,7 +83587,7 @@
         <v>52</v>
       </c>
       <c r="O1485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1485" t="n">
         <v>0</v>
@@ -83703,7 +83703,9 @@
       <c r="Q1487" t="n">
         <v>2</v>
       </c>
-      <c r="R1487" t="inlineStr"/>
+      <c r="R1487" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1488">
       <c r="A1488" s="2" t="n">
@@ -83755,7 +83757,9 @@
       <c r="Q1488" t="n">
         <v>0</v>
       </c>
-      <c r="R1488" t="inlineStr"/>
+      <c r="R1488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1489">
       <c r="A1489" s="2" t="n">
@@ -83807,7 +83811,9 @@
       <c r="Q1489" t="n">
         <v>0</v>
       </c>
-      <c r="R1489" t="inlineStr"/>
+      <c r="R1489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1490">
       <c r="A1490" s="2" t="n">
@@ -83859,7 +83865,9 @@
       <c r="Q1490" t="n">
         <v>0</v>
       </c>
-      <c r="R1490" t="inlineStr"/>
+      <c r="R1490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1491">
       <c r="A1491" s="2" t="n">
@@ -83911,7 +83919,217 @@
       <c r="Q1491" t="n">
         <v>0</v>
       </c>
-      <c r="R1491" t="inlineStr"/>
+      <c r="R1491" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1492" t="n">
+        <v>1808.449951171875</v>
+      </c>
+      <c r="C1492" t="n">
+        <v>1840.849975585938</v>
+      </c>
+      <c r="D1492" t="n">
+        <v>1745.5</v>
+      </c>
+      <c r="E1492" t="n">
+        <v>1755.849975585938</v>
+      </c>
+      <c r="F1492" t="inlineStr"/>
+      <c r="G1492" t="n">
+        <v>265951</v>
+      </c>
+      <c r="H1492" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1492" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1492" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1492" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1492" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1492" t="inlineStr"/>
+    </row>
+    <row r="1493">
+      <c r="A1493" s="2" t="n">
+        <v>45664</v>
+      </c>
+      <c r="B1493" t="n">
+        <v>1764.650024414062</v>
+      </c>
+      <c r="C1493" t="n">
+        <v>1810.599975585938</v>
+      </c>
+      <c r="D1493" t="n">
+        <v>1764.650024414062</v>
+      </c>
+      <c r="E1493" t="n">
+        <v>1799.25</v>
+      </c>
+      <c r="F1493" t="inlineStr"/>
+      <c r="G1493" t="n">
+        <v>149849</v>
+      </c>
+      <c r="H1493" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1493" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1493" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1493" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1493" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1493" t="inlineStr"/>
+    </row>
+    <row r="1494">
+      <c r="A1494" s="2" t="n">
+        <v>45665</v>
+      </c>
+      <c r="B1494" t="n">
+        <v>1804</v>
+      </c>
+      <c r="C1494" t="n">
+        <v>1848</v>
+      </c>
+      <c r="D1494" t="n">
+        <v>1796</v>
+      </c>
+      <c r="E1494" t="n">
+        <v>1800.099975585938</v>
+      </c>
+      <c r="F1494" t="inlineStr"/>
+      <c r="G1494" t="n">
+        <v>269201</v>
+      </c>
+      <c r="H1494" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1494" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1494" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1494" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1494" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1494" t="inlineStr"/>
+    </row>
+    <row r="1495">
+      <c r="A1495" s="2" t="n">
+        <v>45666</v>
+      </c>
+      <c r="B1495" t="n">
+        <v>1795</v>
+      </c>
+      <c r="C1495" t="n">
+        <v>1813.400024414062</v>
+      </c>
+      <c r="D1495" t="n">
+        <v>1775.800048828125</v>
+      </c>
+      <c r="E1495" t="n">
+        <v>1802.300048828125</v>
+      </c>
+      <c r="F1495" t="inlineStr"/>
+      <c r="G1495" t="n">
+        <v>424042</v>
+      </c>
+      <c r="H1495" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1495" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1495" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1495" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1495" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1495" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1495"/>
+  <dimension ref="A1:R1501"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83973,7 +83973,9 @@
       <c r="Q1492" t="n">
         <v>0</v>
       </c>
-      <c r="R1492" t="inlineStr"/>
+      <c r="R1492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1493">
       <c r="A1493" s="2" t="n">
@@ -84025,7 +84027,9 @@
       <c r="Q1493" t="n">
         <v>0</v>
       </c>
-      <c r="R1493" t="inlineStr"/>
+      <c r="R1493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1494">
       <c r="A1494" s="2" t="n">
@@ -84077,7 +84081,9 @@
       <c r="Q1494" t="n">
         <v>0</v>
       </c>
-      <c r="R1494" t="inlineStr"/>
+      <c r="R1494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1495">
       <c r="A1495" s="2" t="n">
@@ -84129,7 +84135,321 @@
       <c r="Q1495" t="n">
         <v>0</v>
       </c>
-      <c r="R1495" t="inlineStr"/>
+      <c r="R1495" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496" s="2" t="n">
+        <v>45667</v>
+      </c>
+      <c r="B1496" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1496" t="n">
+        <v>1808.5</v>
+      </c>
+      <c r="D1496" t="n">
+        <v>1720.25</v>
+      </c>
+      <c r="E1496" t="n">
+        <v>1727.5</v>
+      </c>
+      <c r="F1496" t="inlineStr"/>
+      <c r="G1496" t="n">
+        <v>388362</v>
+      </c>
+      <c r="H1496" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1496" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1496" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1496" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1496" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1496" t="inlineStr"/>
+    </row>
+    <row r="1497">
+      <c r="A1497" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1497" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C1497" t="n">
+        <v>1757.349975585938</v>
+      </c>
+      <c r="D1497" t="n">
+        <v>1673.5</v>
+      </c>
+      <c r="E1497" t="n">
+        <v>1702.099975585938</v>
+      </c>
+      <c r="F1497" t="inlineStr"/>
+      <c r="G1497" t="n">
+        <v>407052</v>
+      </c>
+      <c r="H1497" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1497" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1497" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1497" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1497" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1497" t="inlineStr"/>
+    </row>
+    <row r="1498">
+      <c r="A1498" s="2" t="n">
+        <v>45671</v>
+      </c>
+      <c r="B1498" t="n">
+        <v>1703.300048828125</v>
+      </c>
+      <c r="C1498" t="n">
+        <v>1739</v>
+      </c>
+      <c r="D1498" t="n">
+        <v>1688</v>
+      </c>
+      <c r="E1498" t="n">
+        <v>1729</v>
+      </c>
+      <c r="F1498" t="inlineStr"/>
+      <c r="G1498" t="n">
+        <v>264680</v>
+      </c>
+      <c r="H1498" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1498" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1498" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1498" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1498" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1498" t="inlineStr"/>
+    </row>
+    <row r="1499">
+      <c r="A1499" s="2" t="n">
+        <v>45672</v>
+      </c>
+      <c r="B1499" t="n">
+        <v>1725</v>
+      </c>
+      <c r="C1499" t="n">
+        <v>1742.75</v>
+      </c>
+      <c r="D1499" t="n">
+        <v>1712</v>
+      </c>
+      <c r="E1499" t="n">
+        <v>1737</v>
+      </c>
+      <c r="F1499" t="inlineStr"/>
+      <c r="G1499" t="n">
+        <v>328842</v>
+      </c>
+      <c r="H1499" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1499" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1499" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1499" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1499" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1499" t="inlineStr"/>
+    </row>
+    <row r="1500">
+      <c r="A1500" s="2" t="n">
+        <v>45673</v>
+      </c>
+      <c r="B1500" t="n">
+        <v>1745</v>
+      </c>
+      <c r="C1500" t="n">
+        <v>1762</v>
+      </c>
+      <c r="D1500" t="n">
+        <v>1731.25</v>
+      </c>
+      <c r="E1500" t="n">
+        <v>1740.650024414062</v>
+      </c>
+      <c r="F1500" t="inlineStr"/>
+      <c r="G1500" t="n">
+        <v>109957</v>
+      </c>
+      <c r="H1500" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1500" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1500" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1500" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1500" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1500" t="inlineStr"/>
+    </row>
+    <row r="1501">
+      <c r="A1501" s="2" t="n">
+        <v>45674</v>
+      </c>
+      <c r="B1501" t="n">
+        <v>1739</v>
+      </c>
+      <c r="C1501" t="n">
+        <v>1741.199951171875</v>
+      </c>
+      <c r="D1501" t="n">
+        <v>1695.699951171875</v>
+      </c>
+      <c r="E1501" t="n">
+        <v>1721.949951171875</v>
+      </c>
+      <c r="F1501" t="inlineStr"/>
+      <c r="G1501" t="n">
+        <v>219504</v>
+      </c>
+      <c r="H1501" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1501" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1501" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1501" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1501" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1501" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1501"/>
+  <dimension ref="A1:R1506"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84073,7 +84073,7 @@
         <v>2</v>
       </c>
       <c r="O1494" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1494" t="n">
         <v>0</v>
@@ -84189,7 +84189,9 @@
       <c r="Q1496" t="n">
         <v>0</v>
       </c>
-      <c r="R1496" t="inlineStr"/>
+      <c r="R1496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1497">
       <c r="A1497" s="2" t="n">
@@ -84241,7 +84243,9 @@
       <c r="Q1497" t="n">
         <v>0</v>
       </c>
-      <c r="R1497" t="inlineStr"/>
+      <c r="R1497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1498">
       <c r="A1498" s="2" t="n">
@@ -84293,7 +84297,9 @@
       <c r="Q1498" t="n">
         <v>0</v>
       </c>
-      <c r="R1498" t="inlineStr"/>
+      <c r="R1498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1499">
       <c r="A1499" s="2" t="n">
@@ -84345,7 +84351,9 @@
       <c r="Q1499" t="n">
         <v>0</v>
       </c>
-      <c r="R1499" t="inlineStr"/>
+      <c r="R1499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1500">
       <c r="A1500" s="2" t="n">
@@ -84397,7 +84405,9 @@
       <c r="Q1500" t="n">
         <v>0</v>
       </c>
-      <c r="R1500" t="inlineStr"/>
+      <c r="R1500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1501">
       <c r="A1501" s="2" t="n">
@@ -84449,7 +84459,269 @@
       <c r="Q1501" t="n">
         <v>0</v>
       </c>
-      <c r="R1501" t="inlineStr"/>
+      <c r="R1501" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1502" t="n">
+        <v>1730.599975585938</v>
+      </c>
+      <c r="C1502" t="n">
+        <v>1759.599975585938</v>
+      </c>
+      <c r="D1502" t="n">
+        <v>1701.599975585938</v>
+      </c>
+      <c r="E1502" t="n">
+        <v>1752.050048828125</v>
+      </c>
+      <c r="F1502" t="inlineStr"/>
+      <c r="G1502" t="n">
+        <v>123664</v>
+      </c>
+      <c r="H1502" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1502" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1502" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1502" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1502" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1502" t="inlineStr"/>
+    </row>
+    <row r="1503">
+      <c r="A1503" s="2" t="n">
+        <v>45678</v>
+      </c>
+      <c r="B1503" t="n">
+        <v>1758</v>
+      </c>
+      <c r="C1503" t="n">
+        <v>1796</v>
+      </c>
+      <c r="D1503" t="n">
+        <v>1758</v>
+      </c>
+      <c r="E1503" t="n">
+        <v>1771.199951171875</v>
+      </c>
+      <c r="F1503" t="inlineStr"/>
+      <c r="G1503" t="n">
+        <v>1374819</v>
+      </c>
+      <c r="H1503" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1503" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1503" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1503" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1503" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1503" t="inlineStr"/>
+    </row>
+    <row r="1504">
+      <c r="A1504" s="2" t="n">
+        <v>45679</v>
+      </c>
+      <c r="B1504" t="n">
+        <v>1702</v>
+      </c>
+      <c r="C1504" t="n">
+        <v>1805.650024414062</v>
+      </c>
+      <c r="D1504" t="n">
+        <v>1702</v>
+      </c>
+      <c r="E1504" t="n">
+        <v>1799.050048828125</v>
+      </c>
+      <c r="F1504" t="inlineStr"/>
+      <c r="G1504" t="n">
+        <v>2935848</v>
+      </c>
+      <c r="H1504" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1504" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1504" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1504" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1504" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1504" t="inlineStr"/>
+    </row>
+    <row r="1505">
+      <c r="A1505" s="2" t="n">
+        <v>45680</v>
+      </c>
+      <c r="B1505" t="n">
+        <v>1775</v>
+      </c>
+      <c r="C1505" t="n">
+        <v>1849</v>
+      </c>
+      <c r="D1505" t="n">
+        <v>1768.75</v>
+      </c>
+      <c r="E1505" t="n">
+        <v>1828.349975585938</v>
+      </c>
+      <c r="F1505" t="inlineStr"/>
+      <c r="G1505" t="n">
+        <v>985904</v>
+      </c>
+      <c r="H1505" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1505" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1505" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1505" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1505" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1505" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1505" t="inlineStr"/>
+    </row>
+    <row r="1506">
+      <c r="A1506" s="2" t="n">
+        <v>45681</v>
+      </c>
+      <c r="B1506" t="n">
+        <v>1837</v>
+      </c>
+      <c r="C1506" t="n">
+        <v>1858</v>
+      </c>
+      <c r="D1506" t="n">
+        <v>1798.550048828125</v>
+      </c>
+      <c r="E1506" t="n">
+        <v>1802.949951171875</v>
+      </c>
+      <c r="F1506" t="inlineStr"/>
+      <c r="G1506" t="n">
+        <v>485019</v>
+      </c>
+      <c r="H1506" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1506" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1506" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1506" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1506" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1506"/>
+  <dimension ref="A1:R1507"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84235,7 +84235,7 @@
         <v>3</v>
       </c>
       <c r="O1497" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1497" t="n">
         <v>0</v>
@@ -84513,7 +84513,9 @@
       <c r="Q1502" t="n">
         <v>0</v>
       </c>
-      <c r="R1502" t="inlineStr"/>
+      <c r="R1502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1503">
       <c r="A1503" s="2" t="n">
@@ -84565,7 +84567,9 @@
       <c r="Q1503" t="n">
         <v>0</v>
       </c>
-      <c r="R1503" t="inlineStr"/>
+      <c r="R1503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1504">
       <c r="A1504" s="2" t="n">
@@ -84617,7 +84621,9 @@
       <c r="Q1504" t="n">
         <v>0</v>
       </c>
-      <c r="R1504" t="inlineStr"/>
+      <c r="R1504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1505">
       <c r="A1505" s="2" t="n">
@@ -84669,7 +84675,9 @@
       <c r="Q1505" t="n">
         <v>0</v>
       </c>
-      <c r="R1505" t="inlineStr"/>
+      <c r="R1505" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="1506">
       <c r="A1506" s="2" t="n">
@@ -84721,7 +84729,61 @@
       <c r="Q1506" t="n">
         <v>0</v>
       </c>
-      <c r="R1506" t="inlineStr"/>
+      <c r="R1506" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1507" t="n">
+        <v>1800.050048828125</v>
+      </c>
+      <c r="C1507" t="n">
+        <v>1809.599975585938</v>
+      </c>
+      <c r="D1507" t="n">
+        <v>1790.800048828125</v>
+      </c>
+      <c r="E1507" t="n">
+        <v>1795.949951171875</v>
+      </c>
+      <c r="F1507" t="inlineStr"/>
+      <c r="G1507" t="n">
+        <v>526754</v>
+      </c>
+      <c r="H1507" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1507" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1507" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1507" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1507" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1507"/>
+  <dimension ref="A1:R1516"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84783,7 +84783,477 @@
       <c r="Q1507" t="n">
         <v>0</v>
       </c>
-      <c r="R1507" t="inlineStr"/>
+      <c r="R1507" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508" s="2" t="n">
+        <v>45685</v>
+      </c>
+      <c r="B1508" t="n">
+        <v>1804.300048828125</v>
+      </c>
+      <c r="C1508" t="n">
+        <v>1833.949951171875</v>
+      </c>
+      <c r="D1508" t="n">
+        <v>1779</v>
+      </c>
+      <c r="E1508" t="n">
+        <v>1813.199951171875</v>
+      </c>
+      <c r="F1508" t="inlineStr"/>
+      <c r="G1508" t="n">
+        <v>386266</v>
+      </c>
+      <c r="H1508" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1508" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1508" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1508" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1508" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1508" t="inlineStr"/>
+    </row>
+    <row r="1509">
+      <c r="A1509" s="2" t="n">
+        <v>45686</v>
+      </c>
+      <c r="B1509" t="n">
+        <v>1813.050048828125</v>
+      </c>
+      <c r="C1509" t="n">
+        <v>1868.349975585938</v>
+      </c>
+      <c r="D1509" t="n">
+        <v>1805.150024414062</v>
+      </c>
+      <c r="E1509" t="n">
+        <v>1856.449951171875</v>
+      </c>
+      <c r="F1509" t="inlineStr"/>
+      <c r="G1509" t="n">
+        <v>500967</v>
+      </c>
+      <c r="H1509" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1509" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1509" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1509" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1509" t="inlineStr"/>
+    </row>
+    <row r="1510">
+      <c r="A1510" s="2" t="n">
+        <v>45687</v>
+      </c>
+      <c r="B1510" t="n">
+        <v>1856.449951171875</v>
+      </c>
+      <c r="C1510" t="n">
+        <v>1871.050048828125</v>
+      </c>
+      <c r="D1510" t="n">
+        <v>1830</v>
+      </c>
+      <c r="E1510" t="n">
+        <v>1851.900024414062</v>
+      </c>
+      <c r="F1510" t="inlineStr"/>
+      <c r="G1510" t="n">
+        <v>525265</v>
+      </c>
+      <c r="H1510" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1510" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1510" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1510" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1510" t="inlineStr"/>
+    </row>
+    <row r="1511">
+      <c r="A1511" s="2" t="n">
+        <v>45688</v>
+      </c>
+      <c r="B1511" t="n">
+        <v>1842.75</v>
+      </c>
+      <c r="C1511" t="n">
+        <v>1872.699951171875</v>
+      </c>
+      <c r="D1511" t="n">
+        <v>1833.050048828125</v>
+      </c>
+      <c r="E1511" t="n">
+        <v>1866.349975585938</v>
+      </c>
+      <c r="F1511" t="inlineStr"/>
+      <c r="G1511" t="n">
+        <v>139632</v>
+      </c>
+      <c r="H1511" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1511" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1511" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1511" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1511" t="inlineStr"/>
+    </row>
+    <row r="1512">
+      <c r="A1512" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1512" t="n">
+        <v>1800.050048828125</v>
+      </c>
+      <c r="C1512" t="n">
+        <v>1840.150024414062</v>
+      </c>
+      <c r="D1512" t="n">
+        <v>1788.599975585938</v>
+      </c>
+      <c r="E1512" t="n">
+        <v>1810.449951171875</v>
+      </c>
+      <c r="F1512" t="inlineStr"/>
+      <c r="G1512" t="n">
+        <v>214516</v>
+      </c>
+      <c r="H1512" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1512" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1512" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1512" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1512" t="inlineStr"/>
+    </row>
+    <row r="1513">
+      <c r="A1513" s="2" t="n">
+        <v>45692</v>
+      </c>
+      <c r="B1513" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1513" t="n">
+        <v>1857.599975585938</v>
+      </c>
+      <c r="D1513" t="n">
+        <v>1800</v>
+      </c>
+      <c r="E1513" t="n">
+        <v>1852.699951171875</v>
+      </c>
+      <c r="F1513" t="inlineStr"/>
+      <c r="G1513" t="n">
+        <v>339894</v>
+      </c>
+      <c r="H1513" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1513" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1513" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1513" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1513" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1513" t="inlineStr"/>
+    </row>
+    <row r="1514">
+      <c r="A1514" s="2" t="n">
+        <v>45693</v>
+      </c>
+      <c r="B1514" t="n">
+        <v>1855</v>
+      </c>
+      <c r="C1514" t="n">
+        <v>1918.949951171875</v>
+      </c>
+      <c r="D1514" t="n">
+        <v>1843.650024414062</v>
+      </c>
+      <c r="E1514" t="n">
+        <v>1887.550048828125</v>
+      </c>
+      <c r="F1514" t="inlineStr"/>
+      <c r="G1514" t="n">
+        <v>890914</v>
+      </c>
+      <c r="H1514" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1514" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1514" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1514" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1514" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1514" t="inlineStr"/>
+    </row>
+    <row r="1515">
+      <c r="A1515" s="2" t="n">
+        <v>45694</v>
+      </c>
+      <c r="B1515" t="n">
+        <v>1885</v>
+      </c>
+      <c r="C1515" t="n">
+        <v>1887.849975585938</v>
+      </c>
+      <c r="D1515" t="n">
+        <v>1857.050048828125</v>
+      </c>
+      <c r="E1515" t="n">
+        <v>1868</v>
+      </c>
+      <c r="F1515" t="inlineStr"/>
+      <c r="G1515" t="n">
+        <v>228834</v>
+      </c>
+      <c r="H1515" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1515" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1515" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1515" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1515" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1515" t="inlineStr"/>
+    </row>
+    <row r="1516">
+      <c r="A1516" s="2" t="n">
+        <v>45695</v>
+      </c>
+      <c r="B1516" t="n">
+        <v>1875.050048828125</v>
+      </c>
+      <c r="C1516" t="n">
+        <v>1878.5</v>
+      </c>
+      <c r="D1516" t="n">
+        <v>1838.150024414062</v>
+      </c>
+      <c r="E1516" t="n">
+        <v>1849.75</v>
+      </c>
+      <c r="F1516" t="inlineStr"/>
+      <c r="G1516" t="n">
+        <v>306564</v>
+      </c>
+      <c r="H1516" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1516" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1516" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1516" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1516" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1516" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1516"/>
+  <dimension ref="A1:R1521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -84837,7 +84837,9 @@
       <c r="Q1508" t="n">
         <v>0</v>
       </c>
-      <c r="R1508" t="inlineStr"/>
+      <c r="R1508" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1509">
       <c r="A1509" s="2" t="n">
@@ -84889,7 +84891,9 @@
       <c r="Q1509" t="n">
         <v>0</v>
       </c>
-      <c r="R1509" t="inlineStr"/>
+      <c r="R1509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1510">
       <c r="A1510" s="2" t="n">
@@ -84941,7 +84945,9 @@
       <c r="Q1510" t="n">
         <v>0</v>
       </c>
-      <c r="R1510" t="inlineStr"/>
+      <c r="R1510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1511">
       <c r="A1511" s="2" t="n">
@@ -84993,7 +84999,9 @@
       <c r="Q1511" t="n">
         <v>0</v>
       </c>
-      <c r="R1511" t="inlineStr"/>
+      <c r="R1511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
@@ -85045,7 +85053,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -85097,7 +85107,9 @@
       <c r="Q1513" t="n">
         <v>0</v>
       </c>
-      <c r="R1513" t="inlineStr"/>
+      <c r="R1513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
@@ -85149,7 +85161,9 @@
       <c r="Q1514" t="n">
         <v>0</v>
       </c>
-      <c r="R1514" t="inlineStr"/>
+      <c r="R1514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
@@ -85201,7 +85215,9 @@
       <c r="Q1515" t="n">
         <v>0</v>
       </c>
-      <c r="R1515" t="inlineStr"/>
+      <c r="R1515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
@@ -85253,7 +85269,269 @@
       <c r="Q1516" t="n">
         <v>0</v>
       </c>
-      <c r="R1516" t="inlineStr"/>
+      <c r="R1516" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1517" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C1517" t="n">
+        <v>1860</v>
+      </c>
+      <c r="D1517" t="n">
+        <v>1809</v>
+      </c>
+      <c r="E1517" t="n">
+        <v>1823.25</v>
+      </c>
+      <c r="F1517" t="inlineStr"/>
+      <c r="G1517" t="n">
+        <v>148651</v>
+      </c>
+      <c r="H1517" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1517" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1517" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1517" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1517" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1517" t="inlineStr"/>
+    </row>
+    <row r="1518">
+      <c r="A1518" s="2" t="n">
+        <v>45699</v>
+      </c>
+      <c r="B1518" t="n">
+        <v>1806.699951171875</v>
+      </c>
+      <c r="C1518" t="n">
+        <v>1827.300048828125</v>
+      </c>
+      <c r="D1518" t="n">
+        <v>1780.150024414062</v>
+      </c>
+      <c r="E1518" t="n">
+        <v>1786.050048828125</v>
+      </c>
+      <c r="F1518" t="inlineStr"/>
+      <c r="G1518" t="n">
+        <v>210236</v>
+      </c>
+      <c r="H1518" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1518" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1518" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1518" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1518" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1518" t="inlineStr"/>
+    </row>
+    <row r="1519">
+      <c r="A1519" s="2" t="n">
+        <v>45700</v>
+      </c>
+      <c r="B1519" t="n">
+        <v>1795.5</v>
+      </c>
+      <c r="C1519" t="n">
+        <v>1809.800048828125</v>
+      </c>
+      <c r="D1519" t="n">
+        <v>1741.5</v>
+      </c>
+      <c r="E1519" t="n">
+        <v>1800.050048828125</v>
+      </c>
+      <c r="F1519" t="inlineStr"/>
+      <c r="G1519" t="n">
+        <v>123172</v>
+      </c>
+      <c r="H1519" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1519" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1519" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1519" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1519" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1519" t="inlineStr"/>
+    </row>
+    <row r="1520">
+      <c r="A1520" s="2" t="n">
+        <v>45701</v>
+      </c>
+      <c r="B1520" t="n">
+        <v>1800.050048828125</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>1825</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>1792.550048828125</v>
+      </c>
+      <c r="E1520" t="n">
+        <v>1798.400024414062</v>
+      </c>
+      <c r="F1520" t="inlineStr"/>
+      <c r="G1520" t="n">
+        <v>86388</v>
+      </c>
+      <c r="H1520" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1520" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1520" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1520" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1520" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1520" t="inlineStr"/>
+    </row>
+    <row r="1521">
+      <c r="A1521" s="2" t="n">
+        <v>45702</v>
+      </c>
+      <c r="B1521" t="n">
+        <v>1800.25</v>
+      </c>
+      <c r="C1521" t="n">
+        <v>1815.5</v>
+      </c>
+      <c r="D1521" t="n">
+        <v>1760.5</v>
+      </c>
+      <c r="E1521" t="n">
+        <v>1782.449951171875</v>
+      </c>
+      <c r="F1521" t="inlineStr"/>
+      <c r="G1521" t="n">
+        <v>223752</v>
+      </c>
+      <c r="H1521" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1521" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1521" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1521" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1521" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1521" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1521"/>
+  <dimension ref="A1:R1526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85153,7 +85153,7 @@
         <v>6</v>
       </c>
       <c r="O1514" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1514" t="n">
         <v>0</v>
@@ -85323,7 +85323,9 @@
       <c r="Q1517" t="n">
         <v>0</v>
       </c>
-      <c r="R1517" t="inlineStr"/>
+      <c r="R1517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
@@ -85375,7 +85377,9 @@
       <c r="Q1518" t="n">
         <v>0</v>
       </c>
-      <c r="R1518" t="inlineStr"/>
+      <c r="R1518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
@@ -85427,7 +85431,9 @@
       <c r="Q1519" t="n">
         <v>0</v>
       </c>
-      <c r="R1519" t="inlineStr"/>
+      <c r="R1519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
@@ -85479,7 +85485,9 @@
       <c r="Q1520" t="n">
         <v>0</v>
       </c>
-      <c r="R1520" t="inlineStr"/>
+      <c r="R1520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
@@ -85531,7 +85539,269 @@
       <c r="Q1521" t="n">
         <v>0</v>
       </c>
-      <c r="R1521" t="inlineStr"/>
+      <c r="R1521" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1522" t="n">
+        <v>1771</v>
+      </c>
+      <c r="C1522" t="n">
+        <v>1813</v>
+      </c>
+      <c r="D1522" t="n">
+        <v>1746.099975585938</v>
+      </c>
+      <c r="E1522" t="n">
+        <v>1808.150024414062</v>
+      </c>
+      <c r="F1522" t="inlineStr"/>
+      <c r="G1522" t="n">
+        <v>165448</v>
+      </c>
+      <c r="H1522" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1522" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1522" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1522" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1522" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1522" t="inlineStr"/>
+    </row>
+    <row r="1523">
+      <c r="A1523" s="2" t="n">
+        <v>45706</v>
+      </c>
+      <c r="B1523" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1523" t="n">
+        <v>1808.900024414062</v>
+      </c>
+      <c r="D1523" t="n">
+        <v>1766.849975585938</v>
+      </c>
+      <c r="E1523" t="n">
+        <v>1799.900024414062</v>
+      </c>
+      <c r="F1523" t="inlineStr"/>
+      <c r="G1523" t="n">
+        <v>151684</v>
+      </c>
+      <c r="H1523" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1523" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1523" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1523" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1523" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1523" t="inlineStr"/>
+    </row>
+    <row r="1524">
+      <c r="A1524" s="2" t="n">
+        <v>45707</v>
+      </c>
+      <c r="B1524" t="n">
+        <v>1783.800048828125</v>
+      </c>
+      <c r="C1524" t="n">
+        <v>1809</v>
+      </c>
+      <c r="D1524" t="n">
+        <v>1760</v>
+      </c>
+      <c r="E1524" t="n">
+        <v>1770.75</v>
+      </c>
+      <c r="F1524" t="inlineStr"/>
+      <c r="G1524" t="n">
+        <v>44341</v>
+      </c>
+      <c r="H1524" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1524" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1524" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1524" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1524" t="inlineStr"/>
+    </row>
+    <row r="1525">
+      <c r="A1525" s="2" t="n">
+        <v>45708</v>
+      </c>
+      <c r="B1525" t="n">
+        <v>1770</v>
+      </c>
+      <c r="C1525" t="n">
+        <v>1800.150024414062</v>
+      </c>
+      <c r="D1525" t="n">
+        <v>1755</v>
+      </c>
+      <c r="E1525" t="n">
+        <v>1784.400024414062</v>
+      </c>
+      <c r="F1525" t="inlineStr"/>
+      <c r="G1525" t="n">
+        <v>45245</v>
+      </c>
+      <c r="H1525" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1525" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1525" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1525" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1525" t="inlineStr"/>
+    </row>
+    <row r="1526">
+      <c r="A1526" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1526" t="n">
+        <v>1766.449951171875</v>
+      </c>
+      <c r="C1526" t="n">
+        <v>1793.599975585938</v>
+      </c>
+      <c r="D1526" t="n">
+        <v>1734.5</v>
+      </c>
+      <c r="E1526" t="n">
+        <v>1741.75</v>
+      </c>
+      <c r="F1526" t="inlineStr"/>
+      <c r="G1526" t="n">
+        <v>142099</v>
+      </c>
+      <c r="H1526" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1526" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1526" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1526" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1526" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1526"/>
+  <dimension ref="A1:R1536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6963,7 +6963,7 @@
         <v>0</v>
       </c>
       <c r="Q116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R116" t="n">
         <v>0</v>
@@ -85005,23 +85005,23 @@
     </row>
     <row r="1512">
       <c r="A1512" s="2" t="n">
-        <v>45691</v>
+        <v>45689</v>
       </c>
       <c r="B1512" t="n">
-        <v>1800.050048828125</v>
+        <v>1875</v>
       </c>
       <c r="C1512" t="n">
-        <v>1840.150024414062</v>
+        <v>1892</v>
       </c>
       <c r="D1512" t="n">
-        <v>1788.599975585938</v>
+        <v>1794.900024414062</v>
       </c>
       <c r="E1512" t="n">
-        <v>1810.449951171875</v>
+        <v>1827.400024414062</v>
       </c>
       <c r="F1512" t="inlineStr"/>
       <c r="G1512" t="n">
-        <v>214516</v>
+        <v>234718</v>
       </c>
       <c r="H1512" t="n">
         <v>2025</v>
@@ -85030,7 +85030,7 @@
         <v>2</v>
       </c>
       <c r="J1512" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K1512" t="n">
         <v>0</v>
@@ -85042,7 +85042,7 @@
         <v>0</v>
       </c>
       <c r="N1512" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O1512" t="n">
         <v>0</v>
@@ -85053,29 +85053,27 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="n">
-        <v>0</v>
-      </c>
+      <c r="R1512" t="inlineStr"/>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
-        <v>45692</v>
+        <v>45691</v>
       </c>
       <c r="B1513" t="n">
-        <v>1800</v>
+        <v>1800.050048828125</v>
       </c>
       <c r="C1513" t="n">
-        <v>1857.599975585938</v>
+        <v>1840.150024414062</v>
       </c>
       <c r="D1513" t="n">
-        <v>1800</v>
+        <v>1788.599975585938</v>
       </c>
       <c r="E1513" t="n">
-        <v>1852.699951171875</v>
+        <v>1810.449951171875</v>
       </c>
       <c r="F1513" t="inlineStr"/>
       <c r="G1513" t="n">
-        <v>339894</v>
+        <v>214516</v>
       </c>
       <c r="H1513" t="n">
         <v>2025</v>
@@ -85084,7 +85082,7 @@
         <v>2</v>
       </c>
       <c r="J1513" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K1513" t="n">
         <v>0</v>
@@ -85113,23 +85111,23 @@
     </row>
     <row r="1514">
       <c r="A1514" s="2" t="n">
-        <v>45693</v>
+        <v>45692</v>
       </c>
       <c r="B1514" t="n">
-        <v>1855</v>
+        <v>1800</v>
       </c>
       <c r="C1514" t="n">
-        <v>1918.949951171875</v>
+        <v>1857.599975585938</v>
       </c>
       <c r="D1514" t="n">
-        <v>1843.650024414062</v>
+        <v>1800</v>
       </c>
       <c r="E1514" t="n">
-        <v>1887.550048828125</v>
+        <v>1852.699951171875</v>
       </c>
       <c r="F1514" t="inlineStr"/>
       <c r="G1514" t="n">
-        <v>890914</v>
+        <v>339894</v>
       </c>
       <c r="H1514" t="n">
         <v>2025</v>
@@ -85138,7 +85136,7 @@
         <v>2</v>
       </c>
       <c r="J1514" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K1514" t="n">
         <v>0</v>
@@ -85153,7 +85151,7 @@
         <v>6</v>
       </c>
       <c r="O1514" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P1514" t="n">
         <v>0</v>
@@ -85167,23 +85165,23 @@
     </row>
     <row r="1515">
       <c r="A1515" s="2" t="n">
-        <v>45694</v>
+        <v>45693</v>
       </c>
       <c r="B1515" t="n">
-        <v>1885</v>
+        <v>1855</v>
       </c>
       <c r="C1515" t="n">
-        <v>1887.849975585938</v>
+        <v>1918.949951171875</v>
       </c>
       <c r="D1515" t="n">
-        <v>1857.050048828125</v>
+        <v>1843.650024414062</v>
       </c>
       <c r="E1515" t="n">
-        <v>1868</v>
+        <v>1887.550048828125</v>
       </c>
       <c r="F1515" t="inlineStr"/>
       <c r="G1515" t="n">
-        <v>228834</v>
+        <v>890914</v>
       </c>
       <c r="H1515" t="n">
         <v>2025</v>
@@ -85192,7 +85190,7 @@
         <v>2</v>
       </c>
       <c r="J1515" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K1515" t="n">
         <v>0</v>
@@ -85207,7 +85205,7 @@
         <v>6</v>
       </c>
       <c r="O1515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1515" t="n">
         <v>0</v>
@@ -85221,23 +85219,23 @@
     </row>
     <row r="1516">
       <c r="A1516" s="2" t="n">
-        <v>45695</v>
+        <v>45694</v>
       </c>
       <c r="B1516" t="n">
-        <v>1875.050048828125</v>
+        <v>1885</v>
       </c>
       <c r="C1516" t="n">
-        <v>1878.5</v>
+        <v>1887.849975585938</v>
       </c>
       <c r="D1516" t="n">
-        <v>1838.150024414062</v>
+        <v>1857.050048828125</v>
       </c>
       <c r="E1516" t="n">
-        <v>1849.75</v>
+        <v>1868</v>
       </c>
       <c r="F1516" t="inlineStr"/>
       <c r="G1516" t="n">
-        <v>306564</v>
+        <v>228834</v>
       </c>
       <c r="H1516" t="n">
         <v>2025</v>
@@ -85246,7 +85244,7 @@
         <v>2</v>
       </c>
       <c r="J1516" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K1516" t="n">
         <v>0</v>
@@ -85275,23 +85273,23 @@
     </row>
     <row r="1517">
       <c r="A1517" s="2" t="n">
-        <v>45698</v>
+        <v>45695</v>
       </c>
       <c r="B1517" t="n">
-        <v>1860</v>
+        <v>1875.050048828125</v>
       </c>
       <c r="C1517" t="n">
-        <v>1860</v>
+        <v>1878.5</v>
       </c>
       <c r="D1517" t="n">
-        <v>1809</v>
+        <v>1838.150024414062</v>
       </c>
       <c r="E1517" t="n">
-        <v>1823.25</v>
+        <v>1849.75</v>
       </c>
       <c r="F1517" t="inlineStr"/>
       <c r="G1517" t="n">
-        <v>148651</v>
+        <v>306564</v>
       </c>
       <c r="H1517" t="n">
         <v>2025</v>
@@ -85300,7 +85298,7 @@
         <v>2</v>
       </c>
       <c r="J1517" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K1517" t="n">
         <v>0</v>
@@ -85312,7 +85310,7 @@
         <v>0</v>
       </c>
       <c r="N1517" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O1517" t="n">
         <v>0</v>
@@ -85329,23 +85327,23 @@
     </row>
     <row r="1518">
       <c r="A1518" s="2" t="n">
-        <v>45699</v>
+        <v>45698</v>
       </c>
       <c r="B1518" t="n">
-        <v>1806.699951171875</v>
+        <v>1860</v>
       </c>
       <c r="C1518" t="n">
-        <v>1827.300048828125</v>
+        <v>1860</v>
       </c>
       <c r="D1518" t="n">
-        <v>1780.150024414062</v>
+        <v>1809</v>
       </c>
       <c r="E1518" t="n">
-        <v>1786.050048828125</v>
+        <v>1823.25</v>
       </c>
       <c r="F1518" t="inlineStr"/>
       <c r="G1518" t="n">
-        <v>210236</v>
+        <v>148651</v>
       </c>
       <c r="H1518" t="n">
         <v>2025</v>
@@ -85354,7 +85352,7 @@
         <v>2</v>
       </c>
       <c r="J1518" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K1518" t="n">
         <v>0</v>
@@ -85383,23 +85381,23 @@
     </row>
     <row r="1519">
       <c r="A1519" s="2" t="n">
-        <v>45700</v>
+        <v>45699</v>
       </c>
       <c r="B1519" t="n">
-        <v>1795.5</v>
+        <v>1806.699951171875</v>
       </c>
       <c r="C1519" t="n">
-        <v>1809.800048828125</v>
+        <v>1827.300048828125</v>
       </c>
       <c r="D1519" t="n">
-        <v>1741.5</v>
+        <v>1780.150024414062</v>
       </c>
       <c r="E1519" t="n">
-        <v>1800.050048828125</v>
+        <v>1786.050048828125</v>
       </c>
       <c r="F1519" t="inlineStr"/>
       <c r="G1519" t="n">
-        <v>123172</v>
+        <v>210236</v>
       </c>
       <c r="H1519" t="n">
         <v>2025</v>
@@ -85408,7 +85406,7 @@
         <v>2</v>
       </c>
       <c r="J1519" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K1519" t="n">
         <v>0</v>
@@ -85437,23 +85435,23 @@
     </row>
     <row r="1520">
       <c r="A1520" s="2" t="n">
-        <v>45701</v>
+        <v>45700</v>
       </c>
       <c r="B1520" t="n">
+        <v>1795.5</v>
+      </c>
+      <c r="C1520" t="n">
+        <v>1809.800048828125</v>
+      </c>
+      <c r="D1520" t="n">
+        <v>1741.5</v>
+      </c>
+      <c r="E1520" t="n">
         <v>1800.050048828125</v>
-      </c>
-      <c r="C1520" t="n">
-        <v>1825</v>
-      </c>
-      <c r="D1520" t="n">
-        <v>1792.550048828125</v>
-      </c>
-      <c r="E1520" t="n">
-        <v>1798.400024414062</v>
       </c>
       <c r="F1520" t="inlineStr"/>
       <c r="G1520" t="n">
-        <v>86388</v>
+        <v>123172</v>
       </c>
       <c r="H1520" t="n">
         <v>2025</v>
@@ -85462,7 +85460,7 @@
         <v>2</v>
       </c>
       <c r="J1520" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K1520" t="n">
         <v>0</v>
@@ -85491,23 +85489,23 @@
     </row>
     <row r="1521">
       <c r="A1521" s="2" t="n">
-        <v>45702</v>
+        <v>45701</v>
       </c>
       <c r="B1521" t="n">
-        <v>1800.25</v>
+        <v>1800.050048828125</v>
       </c>
       <c r="C1521" t="n">
-        <v>1815.5</v>
+        <v>1825</v>
       </c>
       <c r="D1521" t="n">
-        <v>1760.5</v>
+        <v>1792.550048828125</v>
       </c>
       <c r="E1521" t="n">
-        <v>1782.449951171875</v>
+        <v>1798.400024414062</v>
       </c>
       <c r="F1521" t="inlineStr"/>
       <c r="G1521" t="n">
-        <v>223752</v>
+        <v>86388</v>
       </c>
       <c r="H1521" t="n">
         <v>2025</v>
@@ -85516,7 +85514,7 @@
         <v>2</v>
       </c>
       <c r="J1521" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1521" t="n">
         <v>0</v>
@@ -85545,23 +85543,23 @@
     </row>
     <row r="1522">
       <c r="A1522" s="2" t="n">
-        <v>45705</v>
+        <v>45702</v>
       </c>
       <c r="B1522" t="n">
-        <v>1771</v>
+        <v>1800.25</v>
       </c>
       <c r="C1522" t="n">
-        <v>1813</v>
+        <v>1815.5</v>
       </c>
       <c r="D1522" t="n">
-        <v>1746.099975585938</v>
+        <v>1760.5</v>
       </c>
       <c r="E1522" t="n">
-        <v>1808.150024414062</v>
+        <v>1782.449951171875</v>
       </c>
       <c r="F1522" t="inlineStr"/>
       <c r="G1522" t="n">
-        <v>165448</v>
+        <v>223752</v>
       </c>
       <c r="H1522" t="n">
         <v>2025</v>
@@ -85570,7 +85568,7 @@
         <v>2</v>
       </c>
       <c r="J1522" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="K1522" t="n">
         <v>0</v>
@@ -85582,7 +85580,7 @@
         <v>0</v>
       </c>
       <c r="N1522" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O1522" t="n">
         <v>0</v>
@@ -85593,27 +85591,29 @@
       <c r="Q1522" t="n">
         <v>0</v>
       </c>
-      <c r="R1522" t="inlineStr"/>
+      <c r="R1522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1523">
       <c r="A1523" s="2" t="n">
-        <v>45706</v>
+        <v>45705</v>
       </c>
       <c r="B1523" t="n">
-        <v>1800</v>
+        <v>1771</v>
       </c>
       <c r="C1523" t="n">
-        <v>1808.900024414062</v>
+        <v>1813</v>
       </c>
       <c r="D1523" t="n">
-        <v>1766.849975585938</v>
+        <v>1746.099975585938</v>
       </c>
       <c r="E1523" t="n">
-        <v>1799.900024414062</v>
+        <v>1808.150024414062</v>
       </c>
       <c r="F1523" t="inlineStr"/>
       <c r="G1523" t="n">
-        <v>151684</v>
+        <v>165448</v>
       </c>
       <c r="H1523" t="n">
         <v>2025</v>
@@ -85622,7 +85622,7 @@
         <v>2</v>
       </c>
       <c r="J1523" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K1523" t="n">
         <v>0</v>
@@ -85645,27 +85645,29 @@
       <c r="Q1523" t="n">
         <v>0</v>
       </c>
-      <c r="R1523" t="inlineStr"/>
+      <c r="R1523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1524">
       <c r="A1524" s="2" t="n">
-        <v>45707</v>
+        <v>45706</v>
       </c>
       <c r="B1524" t="n">
-        <v>1783.800048828125</v>
+        <v>1800</v>
       </c>
       <c r="C1524" t="n">
-        <v>1809</v>
+        <v>1808.900024414062</v>
       </c>
       <c r="D1524" t="n">
-        <v>1760</v>
+        <v>1766.849975585938</v>
       </c>
       <c r="E1524" t="n">
-        <v>1770.75</v>
+        <v>1799.900024414062</v>
       </c>
       <c r="F1524" t="inlineStr"/>
       <c r="G1524" t="n">
-        <v>44341</v>
+        <v>151684</v>
       </c>
       <c r="H1524" t="n">
         <v>2025</v>
@@ -85674,7 +85676,7 @@
         <v>2</v>
       </c>
       <c r="J1524" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1524" t="n">
         <v>0</v>
@@ -85697,27 +85699,29 @@
       <c r="Q1524" t="n">
         <v>0</v>
       </c>
-      <c r="R1524" t="inlineStr"/>
+      <c r="R1524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1525">
       <c r="A1525" s="2" t="n">
-        <v>45708</v>
+        <v>45707</v>
       </c>
       <c r="B1525" t="n">
-        <v>1770</v>
+        <v>1783.800048828125</v>
       </c>
       <c r="C1525" t="n">
-        <v>1800.150024414062</v>
+        <v>1809</v>
       </c>
       <c r="D1525" t="n">
-        <v>1755</v>
+        <v>1760</v>
       </c>
       <c r="E1525" t="n">
-        <v>1784.400024414062</v>
+        <v>1770.75</v>
       </c>
       <c r="F1525" t="inlineStr"/>
       <c r="G1525" t="n">
-        <v>45245</v>
+        <v>44341</v>
       </c>
       <c r="H1525" t="n">
         <v>2025</v>
@@ -85726,7 +85730,7 @@
         <v>2</v>
       </c>
       <c r="J1525" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K1525" t="n">
         <v>0</v>
@@ -85749,27 +85753,29 @@
       <c r="Q1525" t="n">
         <v>0</v>
       </c>
-      <c r="R1525" t="inlineStr"/>
+      <c r="R1525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1526">
       <c r="A1526" s="2" t="n">
-        <v>45709</v>
+        <v>45708</v>
       </c>
       <c r="B1526" t="n">
-        <v>1766.449951171875</v>
+        <v>1770</v>
       </c>
       <c r="C1526" t="n">
-        <v>1793.599975585938</v>
+        <v>1800.150024414062</v>
       </c>
       <c r="D1526" t="n">
-        <v>1734.5</v>
+        <v>1755</v>
       </c>
       <c r="E1526" t="n">
-        <v>1741.75</v>
+        <v>1784.400024414062</v>
       </c>
       <c r="F1526" t="inlineStr"/>
       <c r="G1526" t="n">
-        <v>142099</v>
+        <v>45245</v>
       </c>
       <c r="H1526" t="n">
         <v>2025</v>
@@ -85778,7 +85784,7 @@
         <v>2</v>
       </c>
       <c r="J1526" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K1526" t="n">
         <v>0</v>
@@ -85801,7 +85807,531 @@
       <c r="Q1526" t="n">
         <v>0</v>
       </c>
-      <c r="R1526" t="inlineStr"/>
+      <c r="R1526" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527" s="2" t="n">
+        <v>45709</v>
+      </c>
+      <c r="B1527" t="n">
+        <v>1766.449951171875</v>
+      </c>
+      <c r="C1527" t="n">
+        <v>1793.599975585938</v>
+      </c>
+      <c r="D1527" t="n">
+        <v>1734.5</v>
+      </c>
+      <c r="E1527" t="n">
+        <v>1741.75</v>
+      </c>
+      <c r="F1527" t="inlineStr"/>
+      <c r="G1527" t="n">
+        <v>142099</v>
+      </c>
+      <c r="H1527" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1527" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1527" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1527" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1527" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1528" t="n">
+        <v>1731</v>
+      </c>
+      <c r="C1528" t="n">
+        <v>1750.75</v>
+      </c>
+      <c r="D1528" t="n">
+        <v>1722.300048828125</v>
+      </c>
+      <c r="E1528" t="n">
+        <v>1737.25</v>
+      </c>
+      <c r="F1528" t="inlineStr"/>
+      <c r="G1528" t="n">
+        <v>110347</v>
+      </c>
+      <c r="H1528" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1528" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1528" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1528" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1528" t="inlineStr"/>
+    </row>
+    <row r="1529">
+      <c r="A1529" s="2" t="n">
+        <v>45713</v>
+      </c>
+      <c r="B1529" t="n">
+        <v>1731.050048828125</v>
+      </c>
+      <c r="C1529" t="n">
+        <v>1746.349975585938</v>
+      </c>
+      <c r="D1529" t="n">
+        <v>1705</v>
+      </c>
+      <c r="E1529" t="n">
+        <v>1728.050048828125</v>
+      </c>
+      <c r="F1529" t="inlineStr"/>
+      <c r="G1529" t="n">
+        <v>286519</v>
+      </c>
+      <c r="H1529" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1529" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1529" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1529" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1529" t="inlineStr"/>
+    </row>
+    <row r="1530">
+      <c r="A1530" s="2" t="n">
+        <v>45715</v>
+      </c>
+      <c r="B1530" t="n">
+        <v>1716.050048828125</v>
+      </c>
+      <c r="C1530" t="n">
+        <v>1753.199951171875</v>
+      </c>
+      <c r="D1530" t="n">
+        <v>1684.400024414062</v>
+      </c>
+      <c r="E1530" t="n">
+        <v>1730.099975585938</v>
+      </c>
+      <c r="F1530" t="inlineStr"/>
+      <c r="G1530" t="n">
+        <v>722968</v>
+      </c>
+      <c r="H1530" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1530" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1530" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1530" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1530" t="inlineStr"/>
+    </row>
+    <row r="1531">
+      <c r="A1531" s="2" t="n">
+        <v>45716</v>
+      </c>
+      <c r="B1531" t="n">
+        <v>1721.449951171875</v>
+      </c>
+      <c r="C1531" t="n">
+        <v>1726.800048828125</v>
+      </c>
+      <c r="D1531" t="n">
+        <v>1664.449951171875</v>
+      </c>
+      <c r="E1531" t="n">
+        <v>1689.650024414062</v>
+      </c>
+      <c r="F1531" t="inlineStr"/>
+      <c r="G1531" t="n">
+        <v>194243</v>
+      </c>
+      <c r="H1531" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1531" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1531" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1531" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1531" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1531" t="inlineStr"/>
+    </row>
+    <row r="1532">
+      <c r="A1532" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1532" t="n">
+        <v>1708</v>
+      </c>
+      <c r="C1532" t="n">
+        <v>1720.5</v>
+      </c>
+      <c r="D1532" t="n">
+        <v>1679.5</v>
+      </c>
+      <c r="E1532" t="n">
+        <v>1711.900024414062</v>
+      </c>
+      <c r="F1532" t="inlineStr"/>
+      <c r="G1532" t="n">
+        <v>176554</v>
+      </c>
+      <c r="H1532" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1532" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1532" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1532" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1532" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1532" t="inlineStr"/>
+    </row>
+    <row r="1533">
+      <c r="A1533" s="2" t="n">
+        <v>45720</v>
+      </c>
+      <c r="B1533" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C1533" t="n">
+        <v>1705.849975585938</v>
+      </c>
+      <c r="D1533" t="n">
+        <v>1655</v>
+      </c>
+      <c r="E1533" t="n">
+        <v>1699.25</v>
+      </c>
+      <c r="F1533" t="inlineStr"/>
+      <c r="G1533" t="n">
+        <v>157910</v>
+      </c>
+      <c r="H1533" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1533" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1533" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1533" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1533" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1533" t="inlineStr"/>
+    </row>
+    <row r="1534">
+      <c r="A1534" s="2" t="n">
+        <v>45721</v>
+      </c>
+      <c r="B1534" t="n">
+        <v>1669.199951171875</v>
+      </c>
+      <c r="C1534" t="n">
+        <v>1722.5</v>
+      </c>
+      <c r="D1534" t="n">
+        <v>1669.199951171875</v>
+      </c>
+      <c r="E1534" t="n">
+        <v>1707.099975585938</v>
+      </c>
+      <c r="F1534" t="inlineStr"/>
+      <c r="G1534" t="n">
+        <v>225977</v>
+      </c>
+      <c r="H1534" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1534" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1534" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1534" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1534" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1534" t="inlineStr"/>
+    </row>
+    <row r="1535">
+      <c r="A1535" s="2" t="n">
+        <v>45722</v>
+      </c>
+      <c r="B1535" t="n">
+        <v>1725.050048828125</v>
+      </c>
+      <c r="C1535" t="n">
+        <v>1733</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>1688.099975585938</v>
+      </c>
+      <c r="E1535" t="n">
+        <v>1713.900024414062</v>
+      </c>
+      <c r="F1535" t="inlineStr"/>
+      <c r="G1535" t="n">
+        <v>332628</v>
+      </c>
+      <c r="H1535" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1535" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1535" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1535" t="inlineStr"/>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="2" t="n">
+        <v>45723</v>
+      </c>
+      <c r="B1536" t="n">
+        <v>1705.5</v>
+      </c>
+      <c r="C1536" t="n">
+        <v>1715.900024414062</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>1680.5</v>
+      </c>
+      <c r="E1536" t="n">
+        <v>1696.349975585938</v>
+      </c>
+      <c r="F1536" t="inlineStr"/>
+      <c r="G1536" t="n">
+        <v>180503</v>
+      </c>
+      <c r="H1536" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1536" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1536" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1536" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1536"/>
+  <dimension ref="A1:R1545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -85053,7 +85053,9 @@
       <c r="Q1512" t="n">
         <v>0</v>
       </c>
-      <c r="R1512" t="inlineStr"/>
+      <c r="R1512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1513">
       <c r="A1513" s="2" t="n">
@@ -85915,7 +85917,9 @@
       <c r="Q1528" t="n">
         <v>0</v>
       </c>
-      <c r="R1528" t="inlineStr"/>
+      <c r="R1528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1529">
       <c r="A1529" s="2" t="n">
@@ -85967,7 +85971,9 @@
       <c r="Q1529" t="n">
         <v>0</v>
       </c>
-      <c r="R1529" t="inlineStr"/>
+      <c r="R1529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1530">
       <c r="A1530" s="2" t="n">
@@ -86019,7 +86025,9 @@
       <c r="Q1530" t="n">
         <v>0</v>
       </c>
-      <c r="R1530" t="inlineStr"/>
+      <c r="R1530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1531">
       <c r="A1531" s="2" t="n">
@@ -86071,7 +86079,9 @@
       <c r="Q1531" t="n">
         <v>0</v>
       </c>
-      <c r="R1531" t="inlineStr"/>
+      <c r="R1531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1532">
       <c r="A1532" s="2" t="n">
@@ -86123,7 +86133,9 @@
       <c r="Q1532" t="n">
         <v>0</v>
       </c>
-      <c r="R1532" t="inlineStr"/>
+      <c r="R1532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1533">
       <c r="A1533" s="2" t="n">
@@ -86175,7 +86187,9 @@
       <c r="Q1533" t="n">
         <v>0</v>
       </c>
-      <c r="R1533" t="inlineStr"/>
+      <c r="R1533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1534">
       <c r="A1534" s="2" t="n">
@@ -86227,7 +86241,9 @@
       <c r="Q1534" t="n">
         <v>0</v>
       </c>
-      <c r="R1534" t="inlineStr"/>
+      <c r="R1534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1535">
       <c r="A1535" s="2" t="n">
@@ -86279,7 +86295,9 @@
       <c r="Q1535" t="n">
         <v>0</v>
       </c>
-      <c r="R1535" t="inlineStr"/>
+      <c r="R1535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1536">
       <c r="A1536" s="2" t="n">
@@ -86331,7 +86349,477 @@
       <c r="Q1536" t="n">
         <v>0</v>
       </c>
-      <c r="R1536" t="inlineStr"/>
+      <c r="R1536" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1537" t="n">
+        <v>1696.300048828125</v>
+      </c>
+      <c r="C1537" t="n">
+        <v>1706.25</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>1661.099975585938</v>
+      </c>
+      <c r="E1537" t="n">
+        <v>1673.699951171875</v>
+      </c>
+      <c r="F1537" t="inlineStr"/>
+      <c r="G1537" t="n">
+        <v>155288</v>
+      </c>
+      <c r="H1537" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1537" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1537" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1537" t="inlineStr"/>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="2" t="n">
+        <v>45727</v>
+      </c>
+      <c r="B1538" t="n">
+        <v>1673.699951171875</v>
+      </c>
+      <c r="C1538" t="n">
+        <v>1694.949951171875</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>1638.5</v>
+      </c>
+      <c r="E1538" t="n">
+        <v>1686.449951171875</v>
+      </c>
+      <c r="F1538" t="inlineStr"/>
+      <c r="G1538" t="n">
+        <v>196953</v>
+      </c>
+      <c r="H1538" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1538" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1538" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1538" t="inlineStr"/>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="2" t="n">
+        <v>45728</v>
+      </c>
+      <c r="B1539" t="n">
+        <v>1694.849975585938</v>
+      </c>
+      <c r="C1539" t="n">
+        <v>1696.949951171875</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>1601</v>
+      </c>
+      <c r="E1539" t="n">
+        <v>1641.099975585938</v>
+      </c>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="n">
+        <v>415246</v>
+      </c>
+      <c r="H1539" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1539" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1539" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1539" t="inlineStr"/>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="2" t="n">
+        <v>45729</v>
+      </c>
+      <c r="B1540" t="n">
+        <v>1640.050048828125</v>
+      </c>
+      <c r="C1540" t="n">
+        <v>1641.099975585938</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>1601.150024414062</v>
+      </c>
+      <c r="E1540" t="n">
+        <v>1607.099975585938</v>
+      </c>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="n">
+        <v>298402</v>
+      </c>
+      <c r="H1540" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1540" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1540" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1540" t="inlineStr"/>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1541" t="n">
+        <v>1625.949951171875</v>
+      </c>
+      <c r="C1541" t="n">
+        <v>1671</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>1602.400024414062</v>
+      </c>
+      <c r="E1541" t="n">
+        <v>1663.349975585938</v>
+      </c>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="n">
+        <v>328818</v>
+      </c>
+      <c r="H1541" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1541" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1541" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1541" t="inlineStr"/>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="2" t="n">
+        <v>45734</v>
+      </c>
+      <c r="B1542" t="n">
+        <v>1663.349975585938</v>
+      </c>
+      <c r="C1542" t="n">
+        <v>1663.349975585938</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>1663.349975585938</v>
+      </c>
+      <c r="E1542" t="n">
+        <v>1663.349975585938</v>
+      </c>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="H1542" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1542" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1542" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1542" t="inlineStr"/>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="2" t="n">
+        <v>45735</v>
+      </c>
+      <c r="B1543" t="n">
+        <v>1714.400024414062</v>
+      </c>
+      <c r="C1543" t="n">
+        <v>1755.150024414062</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>1704.199951171875</v>
+      </c>
+      <c r="E1543" t="n">
+        <v>1726.25</v>
+      </c>
+      <c r="F1543" t="inlineStr"/>
+      <c r="G1543" t="n">
+        <v>421205</v>
+      </c>
+      <c r="H1543" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1543" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1543" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1543" t="inlineStr"/>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="2" t="n">
+        <v>45736</v>
+      </c>
+      <c r="B1544" t="n">
+        <v>1721</v>
+      </c>
+      <c r="C1544" t="n">
+        <v>1726.5</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>1692.300048828125</v>
+      </c>
+      <c r="E1544" t="n">
+        <v>1696.25</v>
+      </c>
+      <c r="F1544" t="inlineStr"/>
+      <c r="G1544" t="n">
+        <v>166015</v>
+      </c>
+      <c r="H1544" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1544" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1544" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1544" t="inlineStr"/>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="2" t="n">
+        <v>45737</v>
+      </c>
+      <c r="B1545" t="n">
+        <v>1705</v>
+      </c>
+      <c r="C1545" t="n">
+        <v>1760.550048828125</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>1680</v>
+      </c>
+      <c r="E1545" t="n">
+        <v>1747.400024414062</v>
+      </c>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="n">
+        <v>419593</v>
+      </c>
+      <c r="H1545" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1545" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1545" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1545" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1545"/>
+  <dimension ref="A1:R1554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86403,7 +86403,9 @@
       <c r="Q1537" t="n">
         <v>0</v>
       </c>
-      <c r="R1537" t="inlineStr"/>
+      <c r="R1537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1538">
       <c r="A1538" s="2" t="n">
@@ -86455,7 +86457,9 @@
       <c r="Q1538" t="n">
         <v>0</v>
       </c>
-      <c r="R1538" t="inlineStr"/>
+      <c r="R1538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1539">
       <c r="A1539" s="2" t="n">
@@ -86499,7 +86503,7 @@
         <v>11</v>
       </c>
       <c r="O1539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1539" t="n">
         <v>0</v>
@@ -86507,7 +86511,9 @@
       <c r="Q1539" t="n">
         <v>0</v>
       </c>
-      <c r="R1539" t="inlineStr"/>
+      <c r="R1539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1540">
       <c r="A1540" s="2" t="n">
@@ -86559,7 +86565,9 @@
       <c r="Q1540" t="n">
         <v>0</v>
       </c>
-      <c r="R1540" t="inlineStr"/>
+      <c r="R1540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1541">
       <c r="A1541" s="2" t="n">
@@ -86611,7 +86619,9 @@
       <c r="Q1541" t="n">
         <v>0</v>
       </c>
-      <c r="R1541" t="inlineStr"/>
+      <c r="R1541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1542">
       <c r="A1542" s="2" t="n">
@@ -86663,7 +86673,9 @@
       <c r="Q1542" t="n">
         <v>0</v>
       </c>
-      <c r="R1542" t="inlineStr"/>
+      <c r="R1542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1543">
       <c r="A1543" s="2" t="n">
@@ -86715,7 +86727,9 @@
       <c r="Q1543" t="n">
         <v>0</v>
       </c>
-      <c r="R1543" t="inlineStr"/>
+      <c r="R1543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1544">
       <c r="A1544" s="2" t="n">
@@ -86767,7 +86781,9 @@
       <c r="Q1544" t="n">
         <v>0</v>
       </c>
-      <c r="R1544" t="inlineStr"/>
+      <c r="R1544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1545">
       <c r="A1545" s="2" t="n">
@@ -86819,7 +86835,477 @@
       <c r="Q1545" t="n">
         <v>0</v>
       </c>
-      <c r="R1545" t="inlineStr"/>
+      <c r="R1545" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1546" t="n">
+        <v>1772.949951171875</v>
+      </c>
+      <c r="C1546" t="n">
+        <v>1772.949951171875</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>1725</v>
+      </c>
+      <c r="E1546" t="n">
+        <v>1744.75</v>
+      </c>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="n">
+        <v>241482</v>
+      </c>
+      <c r="H1546" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1546" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1546" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1546" t="inlineStr"/>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="2" t="n">
+        <v>45741</v>
+      </c>
+      <c r="B1547" t="n">
+        <v>1780</v>
+      </c>
+      <c r="C1547" t="n">
+        <v>1786.949951171875</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>1742</v>
+      </c>
+      <c r="E1547" t="n">
+        <v>1745.699951171875</v>
+      </c>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="n">
+        <v>458140</v>
+      </c>
+      <c r="H1547" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1547" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1547" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1547" t="inlineStr"/>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="2" t="n">
+        <v>45742</v>
+      </c>
+      <c r="B1548" t="n">
+        <v>1747</v>
+      </c>
+      <c r="C1548" t="n">
+        <v>1785</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>1742.349975585938</v>
+      </c>
+      <c r="E1548" t="n">
+        <v>1760.75</v>
+      </c>
+      <c r="F1548" t="inlineStr"/>
+      <c r="G1548" t="n">
+        <v>182659</v>
+      </c>
+      <c r="H1548" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1548" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1548" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1548" t="inlineStr"/>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="2" t="n">
+        <v>45743</v>
+      </c>
+      <c r="B1549" t="n">
+        <v>1755</v>
+      </c>
+      <c r="C1549" t="n">
+        <v>1821.449951171875</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>1743.150024414062</v>
+      </c>
+      <c r="E1549" t="n">
+        <v>1813.550048828125</v>
+      </c>
+      <c r="F1549" t="inlineStr"/>
+      <c r="G1549" t="n">
+        <v>287706</v>
+      </c>
+      <c r="H1549" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1549" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1549" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1549" t="inlineStr"/>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="2" t="n">
+        <v>45744</v>
+      </c>
+      <c r="B1550" t="n">
+        <v>1813.550048828125</v>
+      </c>
+      <c r="C1550" t="n">
+        <v>1859.599975585938</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>1804.300048828125</v>
+      </c>
+      <c r="E1550" t="n">
+        <v>1821.550048828125</v>
+      </c>
+      <c r="F1550" t="inlineStr"/>
+      <c r="G1550" t="n">
+        <v>269181</v>
+      </c>
+      <c r="H1550" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1550" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1550" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1550" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1550" t="inlineStr"/>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="2" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B1551" t="n">
+        <v>1821.949951171875</v>
+      </c>
+      <c r="C1551" t="n">
+        <v>1839.599975585938</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>1781.800048828125</v>
+      </c>
+      <c r="E1551" t="n">
+        <v>1786.449951171875</v>
+      </c>
+      <c r="F1551" t="inlineStr"/>
+      <c r="G1551" t="n">
+        <v>237790</v>
+      </c>
+      <c r="H1551" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1551" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1551" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1551" t="inlineStr"/>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="2" t="n">
+        <v>45749</v>
+      </c>
+      <c r="B1552" t="n">
+        <v>1782.150024414062</v>
+      </c>
+      <c r="C1552" t="n">
+        <v>1829.699951171875</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>1767.75</v>
+      </c>
+      <c r="E1552" t="n">
+        <v>1817.150024414062</v>
+      </c>
+      <c r="F1552" t="inlineStr"/>
+      <c r="G1552" t="n">
+        <v>281329</v>
+      </c>
+      <c r="H1552" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1552" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1552" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1552" t="inlineStr"/>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="2" t="n">
+        <v>45750</v>
+      </c>
+      <c r="B1553" t="n">
+        <v>1816.900024414062</v>
+      </c>
+      <c r="C1553" t="n">
+        <v>1883.349975585938</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>1807</v>
+      </c>
+      <c r="E1553" t="n">
+        <v>1857.150024414062</v>
+      </c>
+      <c r="F1553" t="inlineStr"/>
+      <c r="G1553" t="n">
+        <v>433610</v>
+      </c>
+      <c r="H1553" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1553" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1553" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1553" t="inlineStr"/>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="2" t="n">
+        <v>45751</v>
+      </c>
+      <c r="B1554" t="n">
+        <v>1863.949951171875</v>
+      </c>
+      <c r="C1554" t="n">
+        <v>1870</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>1832.099975585938</v>
+      </c>
+      <c r="E1554" t="n">
+        <v>1845.449951171875</v>
+      </c>
+      <c r="F1554" t="inlineStr"/>
+      <c r="G1554" t="n">
+        <v>128300</v>
+      </c>
+      <c r="H1554" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1554" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1554" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1554" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1554"/>
+  <dimension ref="A1:R1558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -86889,7 +86889,9 @@
       <c r="Q1546" t="n">
         <v>0</v>
       </c>
-      <c r="R1546" t="inlineStr"/>
+      <c r="R1546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1547">
       <c r="A1547" s="2" t="n">
@@ -86941,7 +86943,9 @@
       <c r="Q1547" t="n">
         <v>0</v>
       </c>
-      <c r="R1547" t="inlineStr"/>
+      <c r="R1547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1548">
       <c r="A1548" s="2" t="n">
@@ -86993,7 +86997,9 @@
       <c r="Q1548" t="n">
         <v>0</v>
       </c>
-      <c r="R1548" t="inlineStr"/>
+      <c r="R1548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1549">
       <c r="A1549" s="2" t="n">
@@ -87045,7 +87051,9 @@
       <c r="Q1549" t="n">
         <v>0</v>
       </c>
-      <c r="R1549" t="inlineStr"/>
+      <c r="R1549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1550">
       <c r="A1550" s="2" t="n">
@@ -87097,7 +87105,9 @@
       <c r="Q1550" t="n">
         <v>1</v>
       </c>
-      <c r="R1550" t="inlineStr"/>
+      <c r="R1550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1551">
       <c r="A1551" s="2" t="n">
@@ -87149,7 +87159,9 @@
       <c r="Q1551" t="n">
         <v>0</v>
       </c>
-      <c r="R1551" t="inlineStr"/>
+      <c r="R1551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1552">
       <c r="A1552" s="2" t="n">
@@ -87201,7 +87213,9 @@
       <c r="Q1552" t="n">
         <v>0</v>
       </c>
-      <c r="R1552" t="inlineStr"/>
+      <c r="R1552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1553">
       <c r="A1553" s="2" t="n">
@@ -87253,7 +87267,9 @@
       <c r="Q1553" t="n">
         <v>0</v>
       </c>
-      <c r="R1553" t="inlineStr"/>
+      <c r="R1553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1554">
       <c r="A1554" s="2" t="n">
@@ -87305,7 +87321,217 @@
       <c r="Q1554" t="n">
         <v>0</v>
       </c>
-      <c r="R1554" t="inlineStr"/>
+      <c r="R1554" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1555" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C1555" t="n">
+        <v>1812.050048828125</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>1700</v>
+      </c>
+      <c r="E1555" t="n">
+        <v>1786.25</v>
+      </c>
+      <c r="F1555" t="inlineStr"/>
+      <c r="G1555" t="n">
+        <v>377911</v>
+      </c>
+      <c r="H1555" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1555" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1555" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1555" t="inlineStr"/>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="2" t="n">
+        <v>45755</v>
+      </c>
+      <c r="B1556" t="n">
+        <v>1820</v>
+      </c>
+      <c r="C1556" t="n">
+        <v>1847</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>1803.199951171875</v>
+      </c>
+      <c r="E1556" t="n">
+        <v>1808.349975585938</v>
+      </c>
+      <c r="F1556" t="inlineStr"/>
+      <c r="G1556" t="n">
+        <v>246636</v>
+      </c>
+      <c r="H1556" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1556" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1556" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1556" t="inlineStr"/>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="2" t="n">
+        <v>45756</v>
+      </c>
+      <c r="B1557" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C1557" t="n">
+        <v>1835</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>1776.849975585938</v>
+      </c>
+      <c r="E1557" t="n">
+        <v>1825.900024414062</v>
+      </c>
+      <c r="F1557" t="inlineStr"/>
+      <c r="G1557" t="n">
+        <v>227521</v>
+      </c>
+      <c r="H1557" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1557" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1557" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1557" t="inlineStr"/>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="2" t="n">
+        <v>45758</v>
+      </c>
+      <c r="B1558" t="n">
+        <v>1839.949951171875</v>
+      </c>
+      <c r="C1558" t="n">
+        <v>1849</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>1798.5</v>
+      </c>
+      <c r="E1558" t="n">
+        <v>1811.650024414062</v>
+      </c>
+      <c r="F1558" t="inlineStr"/>
+      <c r="G1558" t="n">
+        <v>158264</v>
+      </c>
+      <c r="H1558" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1558" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1558" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1558" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1558"/>
+  <dimension ref="A1:R1561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8531,7 +8531,7 @@
         <v>0</v>
       </c>
       <c r="Q144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R144" t="n">
         <v>0</v>
@@ -87375,7 +87375,9 @@
       <c r="Q1555" t="n">
         <v>0</v>
       </c>
-      <c r="R1555" t="inlineStr"/>
+      <c r="R1555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1556">
       <c r="A1556" s="2" t="n">
@@ -87427,7 +87429,9 @@
       <c r="Q1556" t="n">
         <v>0</v>
       </c>
-      <c r="R1556" t="inlineStr"/>
+      <c r="R1556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1557">
       <c r="A1557" s="2" t="n">
@@ -87479,7 +87483,9 @@
       <c r="Q1557" t="n">
         <v>0</v>
       </c>
-      <c r="R1557" t="inlineStr"/>
+      <c r="R1557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1558">
       <c r="A1558" s="2" t="n">
@@ -87531,7 +87537,165 @@
       <c r="Q1558" t="n">
         <v>0</v>
       </c>
-      <c r="R1558" t="inlineStr"/>
+      <c r="R1558" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="2" t="n">
+        <v>45762</v>
+      </c>
+      <c r="B1559" t="n">
+        <v>1849</v>
+      </c>
+      <c r="C1559" t="n">
+        <v>1885.400024414062</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>1821.099975585938</v>
+      </c>
+      <c r="E1559" t="n">
+        <v>1869.199951171875</v>
+      </c>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="n">
+        <v>309767</v>
+      </c>
+      <c r="H1559" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1559" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1559" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1559" t="inlineStr"/>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="2" t="n">
+        <v>45763</v>
+      </c>
+      <c r="B1560" t="n">
+        <v>1855.5</v>
+      </c>
+      <c r="C1560" t="n">
+        <v>1889.900024414062</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>1831.300048828125</v>
+      </c>
+      <c r="E1560" t="n">
+        <v>1846.400024414062</v>
+      </c>
+      <c r="F1560" t="inlineStr"/>
+      <c r="G1560" t="n">
+        <v>210173</v>
+      </c>
+      <c r="H1560" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1560" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1560" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1560" t="inlineStr"/>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="2" t="n">
+        <v>45764</v>
+      </c>
+      <c r="B1561" t="n">
+        <v>1826.199951171875</v>
+      </c>
+      <c r="C1561" t="n">
+        <v>1864.900024414062</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>1795.699951171875</v>
+      </c>
+      <c r="E1561" t="n">
+        <v>1851.599975585938</v>
+      </c>
+      <c r="F1561" t="inlineStr"/>
+      <c r="G1561" t="n">
+        <v>513508</v>
+      </c>
+      <c r="H1561" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1561" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1561" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1561" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1561"/>
+  <dimension ref="A1:R1570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87591,7 +87591,9 @@
       <c r="Q1559" t="n">
         <v>0</v>
       </c>
-      <c r="R1559" t="inlineStr"/>
+      <c r="R1559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1560">
       <c r="A1560" s="2" t="n">
@@ -87643,7 +87645,9 @@
       <c r="Q1560" t="n">
         <v>0</v>
       </c>
-      <c r="R1560" t="inlineStr"/>
+      <c r="R1560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1561">
       <c r="A1561" s="2" t="n">
@@ -87695,7 +87699,477 @@
       <c r="Q1561" t="n">
         <v>0</v>
       </c>
-      <c r="R1561" t="inlineStr"/>
+      <c r="R1561" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1562" t="n">
+        <v>1851</v>
+      </c>
+      <c r="C1562" t="n">
+        <v>1932</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>1851</v>
+      </c>
+      <c r="E1562" t="n">
+        <v>1922.5</v>
+      </c>
+      <c r="F1562" t="inlineStr"/>
+      <c r="G1562" t="n">
+        <v>426318</v>
+      </c>
+      <c r="H1562" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1562" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1562" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1562" t="inlineStr"/>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="2" t="n">
+        <v>45769</v>
+      </c>
+      <c r="B1563" t="n">
+        <v>1908.099975585938</v>
+      </c>
+      <c r="C1563" t="n">
+        <v>1948</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>1898</v>
+      </c>
+      <c r="E1563" t="n">
+        <v>1903.5</v>
+      </c>
+      <c r="F1563" t="inlineStr"/>
+      <c r="G1563" t="n">
+        <v>288255</v>
+      </c>
+      <c r="H1563" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1563" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1563" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1563" t="inlineStr"/>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="2" t="n">
+        <v>45770</v>
+      </c>
+      <c r="B1564" t="n">
+        <v>1909.800048828125</v>
+      </c>
+      <c r="C1564" t="n">
+        <v>1916.300048828125</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>1870.099975585938</v>
+      </c>
+      <c r="E1564" t="n">
+        <v>1889.400024414062</v>
+      </c>
+      <c r="F1564" t="inlineStr"/>
+      <c r="G1564" t="n">
+        <v>552113</v>
+      </c>
+      <c r="H1564" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1564" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1564" t="inlineStr"/>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="2" t="n">
+        <v>45771</v>
+      </c>
+      <c r="B1565" t="n">
+        <v>1950</v>
+      </c>
+      <c r="C1565" t="n">
+        <v>1980</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>1922.800048828125</v>
+      </c>
+      <c r="E1565" t="n">
+        <v>1974.099975585938</v>
+      </c>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="n">
+        <v>2513060</v>
+      </c>
+      <c r="H1565" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1565" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1565" t="inlineStr"/>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="2" t="n">
+        <v>45772</v>
+      </c>
+      <c r="B1566" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C1566" t="n">
+        <v>2019.099975585938</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>1946.300048828125</v>
+      </c>
+      <c r="E1566" t="n">
+        <v>1965.900024414062</v>
+      </c>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="n">
+        <v>1218246</v>
+      </c>
+      <c r="H1566" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1566" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1566" t="inlineStr"/>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1567" t="n">
+        <v>1965.900024414062</v>
+      </c>
+      <c r="C1567" t="n">
+        <v>2002.5</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>1961.199951171875</v>
+      </c>
+      <c r="E1567" t="n">
+        <v>1983.699951171875</v>
+      </c>
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="n">
+        <v>329279</v>
+      </c>
+      <c r="H1567" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1567" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1567" t="inlineStr"/>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="2" t="n">
+        <v>45776</v>
+      </c>
+      <c r="B1568" t="n">
+        <v>1971.199951171875</v>
+      </c>
+      <c r="C1568" t="n">
+        <v>1993.900024414062</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>1946.800048828125</v>
+      </c>
+      <c r="E1568" t="n">
+        <v>1954.800048828125</v>
+      </c>
+      <c r="F1568" t="inlineStr"/>
+      <c r="G1568" t="n">
+        <v>255102</v>
+      </c>
+      <c r="H1568" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1568" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1568" t="inlineStr"/>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="2" t="n">
+        <v>45777</v>
+      </c>
+      <c r="B1569" t="n">
+        <v>1950.099975585938</v>
+      </c>
+      <c r="C1569" t="n">
+        <v>1969</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>1934.400024414062</v>
+      </c>
+      <c r="E1569" t="n">
+        <v>1942.699951171875</v>
+      </c>
+      <c r="F1569" t="inlineStr"/>
+      <c r="G1569" t="n">
+        <v>360446</v>
+      </c>
+      <c r="H1569" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1569" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1569" t="inlineStr"/>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="2" t="n">
+        <v>45779</v>
+      </c>
+      <c r="B1570" t="n">
+        <v>1949.900024414062</v>
+      </c>
+      <c r="C1570" t="n">
+        <v>1972.599975585938</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>1936.599975585938</v>
+      </c>
+      <c r="E1570" t="n">
+        <v>1949.5</v>
+      </c>
+      <c r="F1570" t="inlineStr"/>
+      <c r="G1570" t="n">
+        <v>859225</v>
+      </c>
+      <c r="H1570" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1570" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1570" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/DALBHARAT.NS.xlsx
+++ b/stock_historical_data/1d/DALBHARAT.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1570"/>
+  <dimension ref="A1:R1580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="Q161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R161" t="n">
         <v>0</v>
@@ -87753,7 +87753,9 @@
       <c r="Q1562" t="n">
         <v>0</v>
       </c>
-      <c r="R1562" t="inlineStr"/>
+      <c r="R1562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1563">
       <c r="A1563" s="2" t="n">
@@ -87805,7 +87807,9 @@
       <c r="Q1563" t="n">
         <v>0</v>
       </c>
-      <c r="R1563" t="inlineStr"/>
+      <c r="R1563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1564">
       <c r="A1564" s="2" t="n">
@@ -87857,7 +87861,9 @@
       <c r="Q1564" t="n">
         <v>0</v>
       </c>
-      <c r="R1564" t="inlineStr"/>
+      <c r="R1564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1565">
       <c r="A1565" s="2" t="n">
@@ -87909,7 +87915,9 @@
       <c r="Q1565" t="n">
         <v>0</v>
       </c>
-      <c r="R1565" t="inlineStr"/>
+      <c r="R1565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1566">
       <c r="A1566" s="2" t="n">
@@ -87953,7 +87961,7 @@
         <v>17</v>
       </c>
       <c r="O1566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1566" t="n">
         <v>0</v>
@@ -87961,7 +87969,9 @@
       <c r="Q1566" t="n">
         <v>0</v>
       </c>
-      <c r="R1566" t="inlineStr"/>
+      <c r="R1566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1567">
       <c r="A1567" s="2" t="n">
@@ -88013,7 +88023,9 @@
       <c r="Q1567" t="n">
         <v>0</v>
       </c>
-      <c r="R1567" t="inlineStr"/>
+      <c r="R1567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1568">
       <c r="A1568" s="2" t="n">
@@ -88065,7 +88077,9 @@
       <c r="Q1568" t="n">
         <v>0</v>
       </c>
-      <c r="R1568" t="inlineStr"/>
+      <c r="R1568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1569">
       <c r="A1569" s="2" t="n">
@@ -88117,7 +88131,9 @@
       <c r="Q1569" t="n">
         <v>0</v>
       </c>
-      <c r="R1569" t="inlineStr"/>
+      <c r="R1569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1570">
       <c r="A1570" s="2" t="n">
@@ -88169,7 +88185,529 @@
       <c r="Q1570" t="n">
         <v>0</v>
       </c>
-      <c r="R1570" t="inlineStr"/>
+      <c r="R1570" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="2" t="n">
+        <v>45782</v>
+      </c>
+      <c r="B1571" t="n">
+        <v>1949.900024414062</v>
+      </c>
+      <c r="C1571" t="n">
+        <v>1963.199951171875</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>1938.099975585938</v>
+      </c>
+      <c r="E1571" t="n">
+        <v>1941</v>
+      </c>
+      <c r="F1571" t="inlineStr"/>
+      <c r="G1571" t="n">
+        <v>137555</v>
+      </c>
+      <c r="H1571" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1571" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1571" t="inlineStr"/>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="2" t="n">
+        <v>45783</v>
+      </c>
+      <c r="B1572" t="n">
+        <v>1936.199951171875</v>
+      </c>
+      <c r="C1572" t="n">
+        <v>1975</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>1936.199951171875</v>
+      </c>
+      <c r="E1572" t="n">
+        <v>1952.400024414062</v>
+      </c>
+      <c r="F1572" t="inlineStr"/>
+      <c r="G1572" t="n">
+        <v>694760</v>
+      </c>
+      <c r="H1572" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1572" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1572" t="inlineStr"/>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="2" t="n">
+        <v>45784</v>
+      </c>
+      <c r="B1573" t="n">
+        <v>1945.699951171875</v>
+      </c>
+      <c r="C1573" t="n">
+        <v>1987</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>1935.099975585938</v>
+      </c>
+      <c r="E1573" t="n">
+        <v>1974.300048828125</v>
+      </c>
+      <c r="F1573" t="inlineStr"/>
+      <c r="G1573" t="n">
+        <v>685326</v>
+      </c>
+      <c r="H1573" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1573" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1573" t="inlineStr"/>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="2" t="n">
+        <v>45785</v>
+      </c>
+      <c r="B1574" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C1574" t="n">
+        <v>1992.199951171875</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>1945.5</v>
+      </c>
+      <c r="E1574" t="n">
+        <v>1964.400024414062</v>
+      </c>
+      <c r="F1574" t="inlineStr"/>
+      <c r="G1574" t="n">
+        <v>322312</v>
+      </c>
+      <c r="H1574" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1574" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1574" t="inlineStr"/>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="2" t="n">
+        <v>45786</v>
+      </c>
+      <c r="B1575" t="n">
+        <v>1925.099975585938</v>
+      </c>
+      <c r="C1575" t="n">
+        <v>1945.400024414062</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>1902.699951171875</v>
+      </c>
+      <c r="E1575" t="n">
+        <v>1916.800048828125</v>
+      </c>
+      <c r="F1575" t="inlineStr"/>
+      <c r="G1575" t="n">
+        <v>143044</v>
+      </c>
+      <c r="H1575" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1575" t="n">
+        <v>19</v>
+      </c>
+      <c r="O1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1575" t="inlineStr"/>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="2" t="n">
+        <v>45789</v>
+      </c>
+      <c r="B1576" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C1576" t="n">
+        <v>1990.900024414062</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>1952.199951171875</v>
+      </c>
+      <c r="E1576" t="n">
+        <v>1980.900024414062</v>
+      </c>
+      <c r="F1576" t="inlineStr"/>
+      <c r="G1576" t="n">
+        <v>138596</v>
+      </c>
+      <c r="H1576" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1576" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1576" t="inlineStr"/>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="2" t="n">
+        <v>45790</v>
+      </c>
+      <c r="B1577" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C1577" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>1974.800048828125</v>
+      </c>
+      <c r="E1577" t="n">
+        <v>2006.699951171875</v>
+      </c>
+      <c r="F1577" t="inlineStr"/>
+      <c r="G1577" t="n">
+        <v>809567</v>
+      </c>
+      <c r="H1577" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1577" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1577" t="inlineStr"/>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="2" t="n">
+        <v>45791</v>
+      </c>
+      <c r="B1578" t="n">
+        <v>2025</v>
+      </c>
+      <c r="C1578" t="n">
+        <v>2073.800048828125</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>2011</v>
+      </c>
+      <c r="E1578" t="n">
+        <v>2056.10009765625</v>
+      </c>
+      <c r="F1578" t="inlineStr"/>
+      <c r="G1578" t="n">
+        <v>852925</v>
+      </c>
+      <c r="H1578" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1578" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1578" t="inlineStr"/>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="2" t="n">
+        <v>45792</v>
+      </c>
+      <c r="B1579" t="n">
+        <v>2065</v>
+      </c>
+      <c r="C1579" t="n">
+        <v>2093</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>2060.60009765625</v>
+      </c>
+      <c r="E1579" t="n">
+        <v>2085.800048828125</v>
+      </c>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="n">
+        <v>382774</v>
+      </c>
+      <c r="H1579" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1579" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1579" t="inlineStr"/>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="2" t="n">
+        <v>45793</v>
+      </c>
+      <c r="B1580" t="n">
+        <v>2090</v>
+      </c>
+      <c r="C1580" t="n">
+        <v>2104.800048828125</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>2059.199951171875</v>
+      </c>
+      <c r="E1580" t="n">
+        <v>2070.10009765625</v>
+      </c>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="n">
+        <v>377498</v>
+      </c>
+      <c r="H1580" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>5</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1580" t="n">
+        <v>20</v>
+      </c>
+      <c r="O1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1580" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
